--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8333376E-29EE-455B-815E-AD869579261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88AFECA-6287-4E41-9B31-940BBCD19087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="41180" windowHeight="21100" xr2:uid="{25C51174-53A0-419C-9EF7-E1BCFA487A84}"/>
+    <workbookView xWindow="61320" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{25C51174-53A0-419C-9EF7-E1BCFA487A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="544">
   <si>
     <t>Gliederung</t>
   </si>
@@ -1664,6 +1664,9 @@
   </si>
   <si>
     <t>Rest</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -2048,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D419F9-3DC6-4727-9911-B938F9B81D86}">
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2061,18 +2064,19 @@
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="115.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="68.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="170.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="170.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="81.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2089,34 +2093,37 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2129,81 +2136,81 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>331</v>
       </c>
       <c r="D5" t="s">
         <v>331</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>332</v>
-      </c>
-      <c r="J5" t="s">
-        <v>333</v>
       </c>
       <c r="K5" t="s">
         <v>333</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>334</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2219,786 +2226,788 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>542</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>159</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>338</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>36</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
         <v>38</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
         <v>41</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>42</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>28</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>46</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>159</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>338</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>36</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
         <v>48</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>39</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
         <v>49</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>42</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>52</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>159</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>338</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>36</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I16" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
         <v>54</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>39</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I17" t="s">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
         <v>55</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>42</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>28</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>58</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>159</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>338</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>36</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I19" t="s">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
         <v>60</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>39</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I20" t="s">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
         <v>61</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>42</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>28</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>63</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>159</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>338</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>36</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I22" t="s">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J22" t="s">
         <v>65</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>42</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>66</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>28</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>68</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>159</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>338</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>36</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I24" t="s">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J24" t="s">
         <v>70</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>42</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>73</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>159</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>338</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>36</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I26" t="s">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
         <v>75</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>42</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>77</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>28</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>78</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>159</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>338</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>36</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I28" t="s">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
         <v>80</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>42</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>82</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>28</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>83</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>85</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>28</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>86</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>89</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>28</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>90</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>42</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>43</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>339</v>
       </c>
       <c r="D32" t="s">
         <v>92</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>28</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>93</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I33" t="s">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J33" t="s">
         <v>95</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>96</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>97</v>
       </c>
       <c r="D34" t="s">
         <v>97</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>28</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>98</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>159</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>338</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>36</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I35" t="s">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J35" t="s">
         <v>100</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>101</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I36" t="s">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J36" t="s">
         <v>103</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>104</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>106</v>
       </c>
       <c r="D37" t="s">
         <v>106</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>28</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>107</v>
-      </c>
-      <c r="J37" t="s">
-        <v>341</v>
       </c>
       <c r="K37" t="s">
         <v>341</v>
       </c>
-      <c r="M37" t="s">
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="N37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E38" s="2"/>
-      <c r="I38" t="s">
+      <c r="F38" s="2"/>
+      <c r="J38" t="s">
         <v>109</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>34</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>35</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E39" s="2"/>
-      <c r="I39" t="s">
+      <c r="F39" s="2"/>
+      <c r="J39" t="s">
         <v>110</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>112</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I40" t="s">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J40" t="s">
         <v>114</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>115</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>342</v>
       </c>
       <c r="D41" t="s">
         <v>343</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>28</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>345</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>115</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>116</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>346</v>
       </c>
       <c r="D42" t="s">
         <v>347</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>28</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>117</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>348</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>349</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>118</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>350</v>
       </c>
       <c r="D43" t="s">
         <v>120</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>28</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>121</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>122</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>123</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>351</v>
       </c>
       <c r="D44" t="s">
         <v>351</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>28</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>125</v>
       </c>
       <c r="D45" t="s">
         <v>125</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>28</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>126</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>96</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>127</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="I46" t="s">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="J46" t="s">
         <v>129</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>130</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>353</v>
       </c>
       <c r="D47" t="s">
         <v>354</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>28</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>344</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>355</v>
       </c>
       <c r="D48" t="s">
         <v>355</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>28</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>356</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>159</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>338</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I49" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J49" t="s">
         <v>357</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>361</v>
       </c>
       <c r="D50" t="s">
         <v>362</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>28</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>363</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I51" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J51" t="s">
         <v>364</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>369</v>
       </c>
@@ -3011,139 +3020,139 @@
       <c r="E53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>542</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>372</v>
       </c>
       <c r="D54" t="s">
         <v>375</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>370</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>135</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>137</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>138</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I55" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J55" t="s">
         <v>140</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>141</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>373</v>
       </c>
       <c r="D56" t="s">
         <v>376</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>370</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>143</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>137</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="N56" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I57" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J57" t="s">
         <v>146</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>142</v>
       </c>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>374</v>
       </c>
       <c r="D58" t="s">
         <v>377</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>370</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>137</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="N58" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I59" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J59" t="s">
         <v>150</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>142</v>
       </c>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>25</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -3159,372 +3168,372 @@
       <c r="E61" t="s">
         <v>15</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>154</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>155</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>157</v>
       </c>
       <c r="D62" t="s">
         <v>157</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>154</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>158</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>142</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>385</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I63" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J63" t="s">
         <v>161</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>159</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I64" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J64" t="s">
         <v>162</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>386</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I65" t="s">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J65" t="s">
         <v>165</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>96</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
         <v>164</v>
       </c>
       <c r="D66" t="s">
         <v>164</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>154</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>166</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>142</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>391</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I67" t="s">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J67" t="s">
         <v>167</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>159</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I68" t="s">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J68" t="s">
         <v>173</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>96</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I69" t="s">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J69" t="s">
         <v>174</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>168</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>169</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>171</v>
       </c>
       <c r="D70" t="s">
         <v>172</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>154</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>175</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>142</v>
-      </c>
-      <c r="M70" t="s">
-        <v>392</v>
       </c>
       <c r="N70" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I71" t="s">
+      <c r="O70" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J71" t="s">
         <v>388</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>34</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I72" t="s">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J72" t="s">
         <v>389</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>96</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I73" t="s">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J73" t="s">
         <v>390</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>168</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>169</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>394</v>
       </c>
       <c r="D74" t="s">
         <v>394</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>397</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>159</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>160</v>
-      </c>
-      <c r="M74" t="s">
-        <v>403</v>
       </c>
       <c r="N74" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I75" t="s">
+      <c r="O74" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J75" t="s">
         <v>398</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>401</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>395</v>
       </c>
       <c r="D76" t="s">
         <v>396</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>399</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>159</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>160</v>
-      </c>
-      <c r="M76" t="s">
-        <v>404</v>
       </c>
       <c r="N76" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I77" t="s">
+      <c r="O76" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J77" t="s">
         <v>400</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>401</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>405</v>
       </c>
       <c r="D78" t="s">
         <v>405</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>409</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>142</v>
-      </c>
-      <c r="M78" t="s">
-        <v>415</v>
       </c>
       <c r="N78" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I79" t="s">
+      <c r="O78" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J79" t="s">
         <v>410</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>159</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>406</v>
       </c>
       <c r="D80" t="s">
         <v>406</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>411</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>142</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I81" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J81" t="s">
         <v>412</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>159</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I82" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J82" t="s">
         <v>413</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>401</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
         <v>407</v>
       </c>
       <c r="D83" t="s">
         <v>408</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>414</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>159</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>160</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -3537,80 +3546,80 @@
       <c r="E85" t="s">
         <v>15</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>542</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
         <v>379</v>
       </c>
       <c r="D86" t="s">
         <v>180</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>4</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>181</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>34</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>35</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>182</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
         <v>380</v>
       </c>
       <c r="D87" t="s">
         <v>184</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>4</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>185</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>186</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>187</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>188</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>189</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>191</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>192</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -3623,91 +3632,91 @@
       <c r="E89" t="s">
         <v>15</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>542</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>382</v>
       </c>
       <c r="D90" t="s">
         <v>198</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>192</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>381</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>418</v>
       </c>
       <c r="D91" t="s">
         <v>419</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>192</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>381</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
         <v>383</v>
       </c>
       <c r="D92" t="s">
         <v>200</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>192</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>381</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>201</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>202</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>203</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>204</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>205</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I93" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J93" t="s">
         <v>207</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>96</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>209</v>
       </c>
@@ -3720,87 +3729,87 @@
       <c r="E94" t="s">
         <v>15</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>211</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>380</v>
       </c>
       <c r="D95" t="s">
         <v>213</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>211</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>214</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
         <v>420</v>
       </c>
       <c r="D96" t="s">
         <v>216</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>211</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
         <v>421</v>
       </c>
       <c r="D97" t="s">
         <v>218</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>211</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>220</v>
       </c>
       <c r="D98" t="s">
         <v>221</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>222</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>223</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>224</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>25</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>227</v>
       </c>
@@ -3813,92 +3822,92 @@
       <c r="E100" t="s">
         <v>15</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>229</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>425</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>159</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>160</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>422</v>
       </c>
       <c r="D101" t="s">
         <v>230</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>229</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>426</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>159</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>160</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>423</v>
       </c>
       <c r="D102" t="s">
         <v>231</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>229</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>427</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>159</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>160</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
         <v>379</v>
       </c>
       <c r="D103" t="s">
         <v>424</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>229</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>428</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>159</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>160</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>433</v>
       </c>
@@ -3911,93 +3920,93 @@
       <c r="E104" t="s">
         <v>15</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>232</v>
       </c>
-      <c r="M104" t="s">
+      <c r="N104" t="s">
         <v>233</v>
       </c>
-      <c r="N104" t="s">
+      <c r="O104" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>436</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>232</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>235</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
         <v>437</v>
       </c>
       <c r="D106" t="s">
         <v>441</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>232</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>236</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
         <v>438</v>
       </c>
       <c r="D107" t="s">
         <v>442</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>232</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>237</v>
       </c>
-      <c r="N107" t="s">
+      <c r="O107" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
         <v>439</v>
       </c>
       <c r="D108" t="s">
         <v>443</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>444</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>25</v>
       </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>448</v>
       </c>
@@ -4013,476 +4022,476 @@
       <c r="E110" t="s">
         <v>15</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>251</v>
       </c>
-      <c r="M110" t="s">
+      <c r="N110" t="s">
         <v>252</v>
       </c>
-      <c r="N110" t="s">
+      <c r="O110" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>254</v>
       </c>
       <c r="D111" t="s">
         <v>254</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>251</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>449</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>142</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>450</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I112" t="s">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J112" t="s">
         <v>255</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>159</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I113" t="s">
+    <row r="113" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J113" t="s">
         <v>257</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>258</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I114" t="s">
+    <row r="114" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J114" t="s">
         <v>260</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>261</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
         <v>274</v>
       </c>
       <c r="D115" t="s">
         <v>275</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>263</v>
       </c>
-      <c r="M115" t="s">
+      <c r="N115" t="s">
         <v>276</v>
       </c>
-      <c r="N115" t="s">
+      <c r="O115" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="116" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
         <v>451</v>
       </c>
       <c r="D116" t="s">
         <v>452</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>263</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>264</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>142</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>455</v>
       </c>
-      <c r="N116" t="s">
+      <c r="O116" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I117" t="s">
+    <row r="117" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J117" t="s">
         <v>268</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>159</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I118" t="s">
+    <row r="118" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J118" t="s">
         <v>270</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>265</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I119" t="s">
+    <row r="119" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J119" t="s">
         <v>272</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>96</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I120" t="s">
+    <row r="120" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J120" t="s">
         <v>453</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>265</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="121" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I121" t="s">
+    <row r="121" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J121" t="s">
         <v>454</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>265</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C122" t="s">
         <v>456</v>
       </c>
       <c r="D122" t="s">
         <v>456</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>458</v>
       </c>
-      <c r="M122" t="s">
+      <c r="N122" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="123" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C123" t="s">
         <v>457</v>
       </c>
       <c r="D123" t="s">
         <v>457</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>458</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>460</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="K123" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>142</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I124" t="s">
+    <row r="124" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J124" t="s">
         <v>461</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>159</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I125" t="s">
+    <row r="125" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J125" t="s">
         <v>462</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>464</v>
       </c>
-      <c r="K125" t="s">
+      <c r="L125" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="126" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I126" t="s">
+    <row r="126" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J126" t="s">
         <v>463</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>96</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I127" t="s">
+    <row r="127" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J127" t="s">
         <v>466</v>
-      </c>
-      <c r="J127" t="s">
-        <v>467</v>
       </c>
       <c r="K127" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="128" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="L127" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C128" t="s">
         <v>469</v>
       </c>
       <c r="D128" t="s">
         <v>469</v>
       </c>
-      <c r="M128" t="s">
+      <c r="N128" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C129" t="s">
         <v>238</v>
       </c>
       <c r="D129" t="s">
         <v>239</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>471</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="K129" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K129" t="s">
+      <c r="L129" t="s">
         <v>142</v>
       </c>
-      <c r="M129" t="s">
+      <c r="N129" t="s">
         <v>472</v>
       </c>
-      <c r="N129" t="s">
+      <c r="O129" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I130" t="s">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J130" t="s">
         <v>240</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>241</v>
       </c>
-      <c r="K130" t="s">
+      <c r="L130" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I131" t="s">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J131" t="s">
         <v>243</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>159</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I132" t="s">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J132" t="s">
         <v>244</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>464</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C133" t="s">
         <v>245</v>
       </c>
       <c r="D133" t="s">
         <v>245</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>246</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="K133" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K133" t="s">
+      <c r="L133" t="s">
         <v>142</v>
       </c>
-      <c r="M133" t="s">
+      <c r="N133" t="s">
         <v>475</v>
       </c>
-      <c r="N133" t="s">
+      <c r="O133" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I134" t="s">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J134" t="s">
         <v>247</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K134" t="s">
         <v>159</v>
       </c>
-      <c r="K134" t="s">
+      <c r="L134" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I135" t="s">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J135" t="s">
         <v>474</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>248</v>
       </c>
-      <c r="K135" t="s">
+      <c r="L135" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C136" t="s">
         <v>478</v>
       </c>
       <c r="D136" t="s">
         <v>479</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>480</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="K136" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K136" t="s">
+      <c r="L136" t="s">
         <v>142</v>
       </c>
-      <c r="M136" t="s">
+      <c r="N136" t="s">
         <v>486</v>
       </c>
-      <c r="N136" t="s">
+      <c r="O136" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I137" t="s">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J137" t="s">
         <v>481</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>159</v>
       </c>
-      <c r="K137" t="s">
+      <c r="L137" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I138" t="s">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J138" t="s">
         <v>482</v>
       </c>
-      <c r="J138" t="s">
+      <c r="K138" t="s">
         <v>248</v>
       </c>
-      <c r="K138" t="s">
+      <c r="L138" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C139" t="s">
         <v>477</v>
       </c>
       <c r="D139" t="s">
         <v>477</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>483</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="K139" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K139" t="s">
+      <c r="L139" t="s">
         <v>142</v>
       </c>
-      <c r="M139" t="s">
+      <c r="N139" t="s">
         <v>490</v>
       </c>
-      <c r="N139" t="s">
+      <c r="O139" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I140" t="s">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J140" t="s">
         <v>484</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
         <v>159</v>
       </c>
-      <c r="K140" t="s">
+      <c r="L140" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I141" t="s">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J141" t="s">
         <v>485</v>
       </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>248</v>
       </c>
-      <c r="K141" t="s">
+      <c r="L141" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C142" t="s">
         <v>476</v>
       </c>
       <c r="D142" t="s">
         <v>476</v>
       </c>
-      <c r="M142" t="s">
+      <c r="N142" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>25</v>
       </c>
-      <c r="M143" t="s">
+      <c r="N143" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>279</v>
       </c>
@@ -4495,144 +4504,144 @@
       <c r="E144" t="s">
         <v>15</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>542</v>
       </c>
-      <c r="M144" t="s">
+      <c r="N144" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C145" t="s">
         <v>493</v>
       </c>
       <c r="D145" t="s">
         <v>493</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>4</v>
       </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>499</v>
       </c>
-      <c r="J145" t="s">
+      <c r="K145" t="s">
         <v>159</v>
       </c>
-      <c r="K145" t="s">
+      <c r="L145" t="s">
         <v>160</v>
       </c>
-      <c r="M145" t="s">
+      <c r="N145" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C146" t="s">
         <v>282</v>
       </c>
       <c r="D146" t="s">
         <v>283</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>4</v>
       </c>
-      <c r="M146" t="s">
+      <c r="N146" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C147" t="s">
         <v>494</v>
       </c>
       <c r="D147" t="s">
         <v>494</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>4</v>
       </c>
-      <c r="M147" t="s">
+      <c r="N147" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C148" t="s">
         <v>495</v>
       </c>
       <c r="D148" t="s">
         <v>495</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>4</v>
       </c>
-      <c r="M148" t="s">
+      <c r="N148" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
         <v>285</v>
       </c>
       <c r="D149" t="s">
         <v>285</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>4</v>
       </c>
-      <c r="M149" t="s">
+      <c r="N149" t="s">
         <v>286</v>
       </c>
-      <c r="N149" t="s">
+      <c r="O149" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C150" t="s">
         <v>496</v>
       </c>
       <c r="D150" t="s">
         <v>496</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>4</v>
       </c>
-      <c r="M150" t="s">
+      <c r="N150" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C151" t="s">
         <v>497</v>
       </c>
       <c r="D151" t="s">
         <v>498</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>4</v>
       </c>
-      <c r="I151" t="s">
+      <c r="J151" t="s">
         <v>288</v>
       </c>
-      <c r="J151" t="s">
+      <c r="K151" t="s">
         <v>159</v>
       </c>
-      <c r="K151" t="s">
+      <c r="L151" t="s">
         <v>160</v>
       </c>
-      <c r="M151" t="s">
+      <c r="N151" t="s">
         <v>289</v>
       </c>
-      <c r="N151" t="s">
+      <c r="O151" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>25</v>
       </c>
-      <c r="M152" t="s">
+      <c r="N152" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>292</v>
       </c>
@@ -4645,175 +4654,175 @@
       <c r="E153" t="s">
         <v>15</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>542</v>
       </c>
-      <c r="M153" t="s">
+      <c r="N153" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C154" t="s">
         <v>505</v>
       </c>
       <c r="D154" t="s">
         <v>505</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>504</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>511</v>
       </c>
-      <c r="J154" t="s">
+      <c r="K154" t="s">
         <v>159</v>
       </c>
-      <c r="K154" t="s">
+      <c r="L154" t="s">
         <v>160</v>
       </c>
-      <c r="M154" t="s">
+      <c r="N154" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
         <v>506</v>
       </c>
       <c r="D155" t="s">
         <v>506</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>504</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>512</v>
       </c>
-      <c r="J155" t="s">
+      <c r="K155" t="s">
         <v>265</v>
       </c>
-      <c r="L155" t="s">
+      <c r="M155" t="s">
         <v>513</v>
       </c>
-      <c r="M155" t="s">
+      <c r="N155" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
         <v>507</v>
       </c>
       <c r="D156" t="s">
         <v>508</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>504</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>295</v>
       </c>
-      <c r="J156" t="s">
+      <c r="K156" t="s">
         <v>159</v>
       </c>
-      <c r="K156" t="s">
+      <c r="L156" t="s">
         <v>160</v>
-      </c>
-      <c r="M156" t="s">
-        <v>296</v>
       </c>
       <c r="N156" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I157" t="s">
+      <c r="O156" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J157" t="s">
         <v>297</v>
       </c>
-      <c r="J157" t="s">
+      <c r="K157" t="s">
         <v>298</v>
       </c>
-      <c r="K157" t="s">
+      <c r="L157" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I158" t="s">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J158" t="s">
         <v>299</v>
       </c>
-      <c r="J158" t="s">
+      <c r="K158" t="s">
         <v>141</v>
       </c>
-      <c r="K158" t="s">
+      <c r="L158" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C159" t="s">
         <v>510</v>
       </c>
       <c r="D159" t="s">
         <v>509</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>504</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>300</v>
       </c>
-      <c r="J159" t="s">
+      <c r="K159" t="s">
         <v>159</v>
       </c>
-      <c r="K159" t="s">
+      <c r="L159" t="s">
         <v>160</v>
-      </c>
-      <c r="M159" t="s">
-        <v>301</v>
       </c>
       <c r="N159" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="I160" t="s">
+      <c r="O159" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J160" t="s">
         <v>302</v>
       </c>
-      <c r="J160" t="s">
+      <c r="K160" t="s">
         <v>298</v>
       </c>
-      <c r="K160" t="s">
+      <c r="L160" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I161" t="s">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J161" t="s">
         <v>303</v>
       </c>
-      <c r="J161" t="s">
+      <c r="K161" t="s">
         <v>141</v>
       </c>
-      <c r="K161" t="s">
+      <c r="L161" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>25</v>
       </c>
-      <c r="M162" t="s">
+      <c r="N162" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>191</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>305</v>
       </c>
-      <c r="M163" t="s">
+      <c r="N163" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>307</v>
       </c>
@@ -4829,341 +4838,341 @@
       <c r="E164" t="s">
         <v>15</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>542</v>
       </c>
-      <c r="M164" t="s">
+      <c r="N164" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C165" t="s">
         <v>518</v>
       </c>
       <c r="D165" t="s">
         <v>518</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>305</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>517</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>525</v>
       </c>
-      <c r="J165" t="s">
+      <c r="K165" t="s">
         <v>298</v>
       </c>
-      <c r="K165" t="s">
+      <c r="L165" t="s">
         <v>169</v>
       </c>
-      <c r="M165" t="s">
+      <c r="N165" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I166" t="s">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J166" t="s">
         <v>526</v>
       </c>
-      <c r="J166" t="s">
+      <c r="K166" t="s">
         <v>265</v>
       </c>
-      <c r="L166" t="s">
+      <c r="M166" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
         <v>519</v>
       </c>
       <c r="D167" t="s">
         <v>519</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>305</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>517</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>527</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
         <v>298</v>
       </c>
-      <c r="K167" t="s">
+      <c r="L167" t="s">
         <v>169</v>
       </c>
-      <c r="M167" t="s">
+      <c r="N167" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I168" t="s">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J168" t="s">
         <v>528</v>
       </c>
-      <c r="J168" t="s">
+      <c r="K168" t="s">
         <v>265</v>
       </c>
-      <c r="L168" t="s">
+      <c r="M168" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C169" t="s">
         <v>520</v>
       </c>
       <c r="D169" t="s">
         <v>520</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>305</v>
       </c>
-      <c r="H169" t="s">
+      <c r="I169" t="s">
         <v>517</v>
       </c>
-      <c r="M169" t="s">
+      <c r="N169" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
         <v>521</v>
       </c>
       <c r="D170" t="s">
         <v>521</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>517</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
         <v>529</v>
-      </c>
-      <c r="J170" t="s">
-        <v>538</v>
       </c>
       <c r="K170" t="s">
         <v>538</v>
       </c>
-      <c r="M170" t="s">
+      <c r="L170" t="s">
+        <v>538</v>
+      </c>
+      <c r="N170" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I171" t="s">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J171" t="s">
         <v>530</v>
       </c>
-      <c r="J171" t="s">
+      <c r="K171" t="s">
         <v>265</v>
       </c>
-      <c r="L171" t="s">
+      <c r="M171" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C172" t="s">
         <v>522</v>
       </c>
       <c r="D172" t="s">
         <v>522</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>305</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>517</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
         <v>531</v>
       </c>
-      <c r="J172" t="s">
+      <c r="K172" t="s">
         <v>539</v>
       </c>
-      <c r="K172" t="s">
+      <c r="L172" t="s">
         <v>540</v>
       </c>
-      <c r="M172" t="s">
+      <c r="N172" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
         <v>523</v>
       </c>
       <c r="D173" t="s">
         <v>523</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>305</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>517</v>
       </c>
-      <c r="I173" t="s">
+      <c r="J173" t="s">
         <v>532</v>
       </c>
-      <c r="J173" t="s">
+      <c r="K173" t="s">
         <v>159</v>
       </c>
-      <c r="K173" t="s">
+      <c r="L173" t="s">
         <v>160</v>
       </c>
-      <c r="M173" t="s">
+      <c r="N173" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
         <v>524</v>
       </c>
       <c r="D174" t="s">
         <v>524</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>305</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
         <v>309</v>
       </c>
       <c r="D175" t="s">
         <v>310</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>305</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>517</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175" t="s">
         <v>311</v>
       </c>
-      <c r="J175" t="s">
+      <c r="K175" t="s">
         <v>298</v>
       </c>
-      <c r="K175" t="s">
+      <c r="L175" t="s">
         <v>169</v>
       </c>
-      <c r="M175" t="s">
+      <c r="N175" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C176" t="s">
         <v>313</v>
       </c>
       <c r="D176" t="s">
         <v>314</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>305</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>517</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>315</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>159</v>
       </c>
-      <c r="K176" t="s">
+      <c r="L176" t="s">
         <v>160</v>
       </c>
-      <c r="M176" t="s">
+      <c r="N176" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="177" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I177" t="s">
+    <row r="177" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J177" t="s">
         <v>317</v>
       </c>
-      <c r="J177" t="s">
+      <c r="K177" t="s">
         <v>298</v>
       </c>
-      <c r="K177" t="s">
+      <c r="L177" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="178" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C178" t="s">
         <v>318</v>
       </c>
       <c r="D178" t="s">
         <v>318</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>305</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>517</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>319</v>
       </c>
-      <c r="J178" t="s">
+      <c r="K178" t="s">
         <v>159</v>
       </c>
-      <c r="K178" t="s">
+      <c r="L178" t="s">
         <v>160</v>
       </c>
-      <c r="M178" t="s">
+      <c r="N178" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="179" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I179" t="s">
+    <row r="179" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J179" t="s">
         <v>321</v>
       </c>
-      <c r="J179" t="s">
+      <c r="K179" t="s">
         <v>298</v>
       </c>
-      <c r="K179" t="s">
+      <c r="L179" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="180" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C180" t="s">
         <v>322</v>
       </c>
       <c r="D180" t="s">
         <v>322</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>517</v>
       </c>
-      <c r="I180" t="s">
+      <c r="J180" t="s">
         <v>323</v>
       </c>
-      <c r="J180" t="s">
+      <c r="K180" t="s">
         <v>324</v>
       </c>
-      <c r="K180" t="s">
+      <c r="L180" t="s">
         <v>325</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
         <v>326</v>
       </c>
-      <c r="M180" t="s">
+      <c r="N180" t="s">
         <v>327</v>
       </c>
-      <c r="N180" t="s">
+      <c r="O180" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="181" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="I181" t="s">
+    <row r="181" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="J181" t="s">
         <v>329</v>
       </c>
-      <c r="J181" t="s">
+      <c r="K181" t="s">
         <v>265</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5180,15 +5189,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B662EE53BAED864D9E45A03F917DD171" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0b478698d34ba6ea8d28dcb235cef59d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac726c7a-29b1-4eed-9efa-e398fb837db4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bae4f718acc166ce461856f4d6d984a" ns3:_="">
     <xsd:import namespace="ac726c7a-29b1-4eed-9efa-e398fb837db4"/>
@@ -5334,6 +5334,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4771D596-AE9B-45DC-A6B9-73F17A909526}">
   <ds:schemaRefs>
@@ -5351,14 +5360,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88F9B643-FE82-48DD-A8BA-D5CF171F42DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01DFC8E8-2623-4FF3-8688-B91BC451163A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5374,4 +5375,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88F9B643-FE82-48DD-A8BA-D5CF171F42DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Git\radiospeech\Schablonen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED8B5B-5064-4C35-9CE5-90AC7650E7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="41180" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" iterate="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -964,9 +973,6 @@
     <t>ZahlBruch</t>
   </si>
   <si>
-    <t>beträgt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Herz-Thorax-Relation beträgt %H1%. </t>
   </si>
   <si>
@@ -1441,9 +1447,6 @@
     <t>W8</t>
   </si>
   <si>
-    <t xml:space="preserve">Lokalisation: </t>
-  </si>
-  <si>
     <t>Verkalkung [lokalisiert in %W8%]</t>
   </si>
   <si>
@@ -1519,9 +1522,6 @@
     <t>S9</t>
   </si>
   <si>
-    <t>auf Höhe …</t>
-  </si>
-  <si>
     <t>Osteochondrose</t>
   </si>
   <si>
@@ -1643,37 +1643,47 @@
   </si>
   <si>
     <t>im ...</t>
+  </si>
+  <si>
+    <t>auf Höhe ...</t>
+  </si>
+  <si>
+    <t>Lokalisation: ...</t>
+  </si>
+  <si>
+    <t>beträgt ...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1683,7 +1693,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1693,46 +1703,54 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1922,37 +1940,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="8.29"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
-    <col customWidth="1" min="4" max="4" width="115.71"/>
-    <col customWidth="1" min="5" max="6" width="7.0"/>
-    <col customWidth="1" min="7" max="7" width="15.86"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="72.71"/>
-    <col customWidth="1" min="10" max="10" width="10.14"/>
-    <col customWidth="1" min="11" max="11" width="40.57"/>
-    <col customWidth="1" min="12" max="12" width="68.14"/>
-    <col customWidth="1" min="13" max="13" width="26.57"/>
-    <col customWidth="1" min="14" max="14" width="170.86"/>
-    <col customWidth="1" min="15" max="15" width="81.14"/>
-    <col customWidth="1" min="16" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="115.7265625" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="72.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" customWidth="1"/>
+    <col min="12" max="12" width="68.08984375" customWidth="1"/>
+    <col min="13" max="13" width="26.54296875" customWidth="1"/>
+    <col min="14" max="14" width="170.81640625" customWidth="1"/>
+    <col min="15" max="15" width="81.08984375" customWidth="1"/>
+    <col min="16" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2019,7 +2039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2033,7 +2053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +2067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2067,7 +2087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2078,7 +2098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2086,7 +2106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2109,7 +2129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2135,7 +2155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
@@ -2146,7 +2166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J11" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,7 +2177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2183,7 +2203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J13" s="1" t="s">
         <v>57</v>
       </c>
@@ -2194,7 +2214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2205,7 +2225,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
@@ -2231,7 +2251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2242,7 +2262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2253,7 +2273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2290,7 +2310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J20" s="1" t="s">
         <v>70</v>
       </c>
@@ -2301,7 +2321,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
@@ -2327,7 +2347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J22" s="1" t="s">
         <v>74</v>
       </c>
@@ -2338,7 +2358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
@@ -2364,7 +2384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J24" s="1" t="s">
         <v>79</v>
       </c>
@@ -2375,7 +2395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
         <v>80</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2412,7 +2432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
@@ -2438,7 +2458,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J28" s="1" t="s">
         <v>89</v>
       </c>
@@ -2449,7 +2469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2472,7 +2492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
@@ -2495,7 +2515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>97</v>
       </c>
@@ -2518,7 +2538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
         <v>101</v>
       </c>
@@ -2541,7 +2561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J33" s="1" t="s">
         <v>105</v>
       </c>
@@ -2552,7 +2572,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
@@ -2578,7 +2598,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J35" s="1" t="s">
         <v>111</v>
       </c>
@@ -2589,7 +2609,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J36" s="1" t="s">
         <v>114</v>
       </c>
@@ -2600,7 +2620,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
         <v>117</v>
       </c>
@@ -2623,7 +2643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="J38" s="1" t="s">
@@ -2639,7 +2659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="J39" s="1" t="s">
@@ -2655,7 +2675,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J40" s="1" t="s">
         <v>128</v>
       </c>
@@ -2666,7 +2686,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="1" t="s">
         <v>131</v>
       </c>
@@ -2689,7 +2709,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="1" t="s">
         <v>135</v>
       </c>
@@ -2715,7 +2735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="1" t="s">
         <v>142</v>
       </c>
@@ -2738,7 +2758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="1" t="s">
         <v>148</v>
       </c>
@@ -2752,7 +2772,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="1" t="s">
         <v>150</v>
       </c>
@@ -2775,7 +2795,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J46" s="1" t="s">
         <v>154</v>
       </c>
@@ -2786,7 +2806,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="1" t="s">
         <v>157</v>
       </c>
@@ -2809,7 +2829,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="1" t="s">
         <v>161</v>
       </c>
@@ -2832,7 +2852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J49" s="1" t="s">
         <v>164</v>
       </c>
@@ -2843,7 +2863,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C50" s="1" t="s">
         <v>165</v>
       </c>
@@ -2866,7 +2886,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J51" s="1" t="s">
         <v>171</v>
       </c>
@@ -2875,7 +2895,7 @@
       </c>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
@@ -2883,7 +2903,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
@@ -2906,7 +2926,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C54" s="1" t="s">
         <v>179</v>
       </c>
@@ -2932,7 +2952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J55" s="1" t="s">
         <v>186</v>
       </c>
@@ -2944,7 +2964,7 @@
       </c>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C56" s="1" t="s">
         <v>189</v>
       </c>
@@ -2970,7 +2990,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J57" s="1" t="s">
         <v>194</v>
       </c>
@@ -2982,7 +3002,7 @@
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="1" t="s">
         <v>195</v>
       </c>
@@ -3008,7 +3028,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J59" s="1" t="s">
         <v>200</v>
       </c>
@@ -3020,7 +3040,7 @@
       </c>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>33</v>
       </c>
@@ -3028,7 +3048,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>202</v>
       </c>
@@ -3054,7 +3074,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C62" s="1" t="s">
         <v>208</v>
       </c>
@@ -3080,7 +3100,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J63" s="1" t="s">
         <v>212</v>
       </c>
@@ -3091,7 +3111,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J64" s="1" t="s">
         <v>214</v>
       </c>
@@ -3102,7 +3122,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J65" s="1" t="s">
         <v>217</v>
       </c>
@@ -3113,7 +3133,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C66" s="1" t="s">
         <v>219</v>
       </c>
@@ -3139,7 +3159,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J67" s="1" t="s">
         <v>223</v>
       </c>
@@ -3150,7 +3170,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J68" s="1" t="s">
         <v>224</v>
       </c>
@@ -3161,7 +3181,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J69" s="1" t="s">
         <v>225</v>
       </c>
@@ -3175,7 +3195,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
         <v>229</v>
       </c>
@@ -3201,7 +3221,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J71" s="1" t="s">
         <v>233</v>
       </c>
@@ -3212,7 +3232,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J72" s="1" t="s">
         <v>234</v>
       </c>
@@ -3223,7 +3243,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J73" s="1" t="s">
         <v>235</v>
       </c>
@@ -3237,7 +3257,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="1" t="s">
         <v>236</v>
       </c>
@@ -3260,7 +3280,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J75" s="1" t="s">
         <v>239</v>
       </c>
@@ -3271,7 +3291,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C76" s="1" t="s">
         <v>242</v>
       </c>
@@ -3294,7 +3314,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J77" s="1" t="s">
         <v>246</v>
       </c>
@@ -3305,7 +3325,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C78" s="1" t="s">
         <v>247</v>
       </c>
@@ -3328,7 +3348,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J79" s="1" t="s">
         <v>250</v>
       </c>
@@ -3339,7 +3359,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C80" s="1" t="s">
         <v>251</v>
       </c>
@@ -3359,7 +3379,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J81" s="1" t="s">
         <v>254</v>
       </c>
@@ -3370,7 +3390,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J82" s="1" t="s">
         <v>255</v>
       </c>
@@ -3381,7 +3401,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C83" s="1" t="s">
         <v>256</v>
       </c>
@@ -3401,7 +3421,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
@@ -3409,7 +3429,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>261</v>
       </c>
@@ -3429,7 +3449,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C86" s="1" t="s">
         <v>264</v>
       </c>
@@ -3455,7 +3475,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C87" s="1" t="s">
         <v>269</v>
       </c>
@@ -3484,7 +3504,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>277</v>
       </c>
@@ -3495,7 +3515,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>280</v>
       </c>
@@ -3515,7 +3535,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C90" s="1" t="s">
         <v>284</v>
       </c>
@@ -3532,7 +3552,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C91" s="1" t="s">
         <v>287</v>
       </c>
@@ -3549,7 +3569,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
         <v>290</v>
       </c>
@@ -3581,7 +3601,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J93" s="1" t="s">
         <v>298</v>
       </c>
@@ -3592,7 +3612,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>300</v>
       </c>
@@ -3612,7 +3632,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C95" s="1" t="s">
         <v>269</v>
       </c>
@@ -3629,7 +3649,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C96" s="1" t="s">
         <v>307</v>
       </c>
@@ -3643,7 +3663,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C97" s="1" t="s">
         <v>310</v>
       </c>
@@ -3657,7 +3677,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C98" s="1" t="s">
         <v>313</v>
       </c>
@@ -3671,38 +3691,38 @@
         <v>316</v>
       </c>
       <c r="M98" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="N98" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N98" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
+    </row>
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N99" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>43</v>
@@ -3711,21 +3731,21 @@
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="G101" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>43</v>
@@ -3734,21 +3754,21 @@
         <v>213</v>
       </c>
       <c r="N101" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C102" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="G102" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>43</v>
@@ -3757,21 +3777,21 @@
         <v>213</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C103" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J103" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>43</v>
@@ -3780,92 +3800,92 @@
         <v>213</v>
       </c>
       <c r="N103" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N104" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="O104" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="O104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="G105" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N105" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N105" s="1" t="s">
+      <c r="O105" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="O105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="G106" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N106" s="1" t="s">
+      <c r="O106" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="O106" s="1" t="s">
+    </row>
+    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C107" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="G107" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N107" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N107" s="1" t="s">
+      <c r="O107" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="O107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C108" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>187</v>
@@ -3874,52 +3894,52 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N109" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N110" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="N110" s="1" t="s">
+      <c r="O110" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C111" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>187</v>
@@ -3928,15 +3948,15 @@
         <v>188</v>
       </c>
       <c r="N111" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O111" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="O111" s="1" t="s">
+    </row>
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J112" s="1" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="J112" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>43</v>
@@ -3945,57 +3965,57 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J113" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K113" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="K113" s="1" t="s">
+      <c r="L113" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L113" s="1" t="s">
+    </row>
+    <row r="114" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J114" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="J114" s="1" t="s">
+      <c r="K114" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="K114" s="1" t="s">
+      <c r="L114" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="L114" s="1" t="s">
+    </row>
+    <row r="115" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C115" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N115" s="1" t="s">
+      <c r="O115" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O115" s="1" t="s">
+    </row>
+    <row r="116" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C116" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="G116" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>187</v>
@@ -4004,15 +4024,15 @@
         <v>188</v>
       </c>
       <c r="N116" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O116" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="O116" s="1" t="s">
+    </row>
+    <row r="117" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J117" s="1" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="J117" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>43</v>
@@ -4021,76 +4041,76 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J118" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="M118" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="M118" s="1" t="s">
+    </row>
+    <row r="119" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J119" s="1" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="J119" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>106</v>
       </c>
       <c r="M119" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J120" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="J120" s="1" t="s">
+      <c r="K120" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K120" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M120" s="1" t="s">
+    </row>
+    <row r="121" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J121" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="J121" s="1" t="s">
+      <c r="K121" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M121" s="1" t="s">
+    </row>
+    <row r="122" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C122" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="N122" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C123" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="C123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>187</v>
@@ -4099,12 +4119,12 @@
         <v>188</v>
       </c>
       <c r="N123" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J124" s="1" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="J124" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>43</v>
@@ -4113,59 +4133,59 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J125" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="L125" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="L125" s="1" t="s">
+    </row>
+    <row r="126" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J126" s="1" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="J126" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>106</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J127" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K127" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K127" s="1" t="s">
+      <c r="L127" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C128" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="C128" s="1" t="s">
+      <c r="N128" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="N128" s="1" t="s">
+    </row>
+    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C129" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="J129" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>187</v>
@@ -4174,26 +4194,26 @@
         <v>188</v>
       </c>
       <c r="N129" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O129" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="O129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J130" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="J130" s="1" t="s">
+      <c r="K130" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="L130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J131" s="1" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="J131" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>43</v>
@@ -4202,26 +4222,26 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J132" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C133" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>187</v>
@@ -4230,15 +4250,15 @@
         <v>188</v>
       </c>
       <c r="N133" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O133" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="O133" s="1" t="s">
+    </row>
+    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J134" s="1" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="J134" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>43</v>
@@ -4247,26 +4267,26 @@
         <v>213</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J135" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="L135" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="L135" s="1" t="s">
+    </row>
+    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="J136" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>187</v>
@@ -4275,15 +4295,15 @@
         <v>188</v>
       </c>
       <c r="N136" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="O136" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="O136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J137" s="1" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="J137" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>43</v>
@@ -4292,26 +4312,26 @@
         <v>213</v>
       </c>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J138" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C139" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K138" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J139" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>187</v>
@@ -4320,15 +4340,15 @@
         <v>188</v>
       </c>
       <c r="N139" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="O139" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="O139" s="1" t="s">
+    </row>
+    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J140" s="1" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="J140" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>43</v>
@@ -4337,45 +4357,45 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J141" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C142" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N142" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="N142" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
+    </row>
+    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N143" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>16</v>
@@ -4384,21 +4404,21 @@
         <v>38</v>
       </c>
       <c r="N144" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C145" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="C145" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="D145" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>43</v>
@@ -4407,94 +4427,94 @@
         <v>213</v>
       </c>
       <c r="N145" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C146" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N146" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C147" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="C147" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="D147" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N147" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C148" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="C148" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="D148" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N148" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C149" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="C149" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="D149" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N149" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="O149" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="O149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C150" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="C150" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="D150" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N150" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C151" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>43</v>
@@ -4503,29 +4523,29 @@
         <v>213</v>
       </c>
       <c r="N151" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O151" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="O151" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
+    </row>
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N152" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>16</v>
@@ -4534,21 +4554,21 @@
         <v>38</v>
       </c>
       <c r="N153" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C154" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J154" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>43</v>
@@ -4557,44 +4577,44 @@
         <v>213</v>
       </c>
       <c r="N154" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C155" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J155" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J155" s="1" t="s">
+      <c r="K155" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N155" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="K155" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M155" s="1" t="s">
+    </row>
+    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C156" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="N155" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="C156" s="1" t="s">
+      <c r="I156" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J156" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>43</v>
@@ -4603,26 +4623,26 @@
         <v>213</v>
       </c>
       <c r="N156" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J157" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K157" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="O156" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="J157" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J158" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>187</v>
@@ -4631,18 +4651,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C159" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>43</v>
@@ -4651,26 +4671,26 @@
         <v>213</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J160" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J161" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>187</v>
@@ -4679,37 +4699,37 @@
         <v>188</v>
       </c>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="163" ht="14.25" customHeight="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>277</v>
       </c>
       <c r="H163" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="N163" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>16</v>
@@ -4718,175 +4738,175 @@
         <v>38</v>
       </c>
       <c r="N164" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C165" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J165" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="165" ht="14.25" customHeight="1">
-      <c r="C165" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="K165" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N165" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J166" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C167" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="166" ht="14.25" customHeight="1">
-      <c r="J166" s="1" t="s">
+      <c r="D167" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J167" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="K166" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="167" ht="14.25" customHeight="1">
-      <c r="C167" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="K167" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N167" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J168" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C169" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C170" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="J168" s="1" t="s">
+      <c r="D170" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J170" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="K168" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="169" ht="14.25" customHeight="1">
-      <c r="C169" s="1" t="s">
+      <c r="K170" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="L170" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="170" ht="14.25" customHeight="1">
-      <c r="C170" s="1" t="s">
+      <c r="N170" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J170" s="1" t="s">
+    </row>
+    <row r="171" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J171" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="K170" s="1" t="s">
+      <c r="K171" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C172" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="L170" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="N170" s="1" t="s">
+      <c r="H172" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J172" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="J171" s="1" t="s">
+      <c r="K172" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="K171" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25" customHeight="1">
-      <c r="C172" s="1" t="s">
+      <c r="L172" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="K172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C173" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="D173" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J173" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="173" ht="14.25" customHeight="1">
-      <c r="C173" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>43</v>
@@ -4895,64 +4915,64 @@
         <v>213</v>
       </c>
       <c r="N173" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C174" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C175" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="174" ht="14.25" customHeight="1">
-      <c r="C174" s="1" t="s">
+      <c r="H175" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="175" ht="14.25" customHeight="1">
-      <c r="C175" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="K175" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N175" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C176" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J176" s="1" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="176" ht="14.25" customHeight="1">
-      <c r="C176" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>43</v>
@@ -4961,35 +4981,35 @@
         <v>213</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="177" ht="14.25" customHeight="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="177" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J177" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C178" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>43</v>
@@ -4998,883 +5018,881 @@
         <v>213</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="179" ht="14.25" customHeight="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="179" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J179" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C180" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="J180" s="1" t="s">
+      <c r="M180" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="K180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="O180" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="M180" s="1" t="s">
+    </row>
+    <row r="181" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J181" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="N180" s="1" t="s">
+      <c r="K181" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M181" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="O180" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="181" ht="14.25" customHeight="1">
-      <c r="J181" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="K181" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M181" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="182" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amar\Git\radiospeech\Schablonen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED8B5B-5064-4C35-9CE5-90AC7650E7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35FED3B-AB91-4F9A-98C8-0A5FDD934BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="41180" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="546">
   <si>
     <t>Gliederung</t>
   </si>
@@ -1652,6 +1652,12 @@
   </si>
   <si>
     <t>beträgt ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am ehesten Mamillenschatten; </t>
+  </si>
+  <si>
+    <t>Ausdehnung über … cm</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1740,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1949,30 +1955,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" topLeftCell="G106" workbookViewId="0">
+      <selection activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="115.7265625" customWidth="1"/>
+    <col min="4" max="4" width="115.7109375" customWidth="1"/>
     <col min="5" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="72.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="40.54296875" customWidth="1"/>
-    <col min="12" max="12" width="68.08984375" customWidth="1"/>
-    <col min="13" max="13" width="26.54296875" customWidth="1"/>
-    <col min="14" max="14" width="170.81640625" customWidth="1"/>
-    <col min="15" max="15" width="81.08984375" customWidth="1"/>
-    <col min="16" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="72.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" customWidth="1"/>
+    <col min="12" max="12" width="68.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="14" max="14" width="170.85546875" customWidth="1"/>
+    <col min="15" max="15" width="81.140625" customWidth="1"/>
+    <col min="16" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J11" s="1" t="s">
         <v>50</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J13" s="1" t="s">
         <v>57</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="1" t="s">
         <v>70</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J22" s="1" t="s">
         <v>74</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J24" s="1" t="s">
         <v>79</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>80</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J28" s="1" t="s">
         <v>89</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>97</v>
       </c>
@@ -2538,7 +2544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>101</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="1" t="s">
         <v>105</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>108</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="1" t="s">
         <v>111</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J36" s="1" t="s">
         <v>114</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>117</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="J38" s="1" t="s">
@@ -2659,7 +2665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="J39" s="1" t="s">
@@ -2675,7 +2681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J40" s="1" t="s">
         <v>128</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>131</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>135</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>142</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>148</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>150</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J46" s="1" t="s">
         <v>154</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
         <v>157</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>161</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J49" s="1" t="s">
         <v>164</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>165</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J51" s="1" t="s">
         <v>171</v>
       </c>
@@ -2895,7 +2901,7 @@
       </c>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>174</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>179</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J55" s="1" t="s">
         <v>186</v>
       </c>
@@ -2964,7 +2970,7 @@
       </c>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>189</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J57" s="1" t="s">
         <v>194</v>
       </c>
@@ -3002,7 +3008,7 @@
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>195</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J59" s="1" t="s">
         <v>200</v>
       </c>
@@ -3040,7 +3046,7 @@
       </c>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>33</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>202</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>208</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J63" s="1" t="s">
         <v>212</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J64" s="1" t="s">
         <v>214</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J65" s="1" t="s">
         <v>217</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>219</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J67" s="1" t="s">
         <v>223</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J68" s="1" t="s">
         <v>224</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J69" s="1" t="s">
         <v>225</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>229</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="1" t="s">
         <v>233</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J72" s="1" t="s">
         <v>234</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J73" s="1" t="s">
         <v>235</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>236</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J75" s="1" t="s">
         <v>239</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>242</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J77" s="1" t="s">
         <v>246</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>247</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J79" s="1" t="s">
         <v>250</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
         <v>251</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J81" s="1" t="s">
         <v>254</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J82" s="1" t="s">
         <v>255</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>256</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>261</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>264</v>
       </c>
@@ -3475,7 +3481,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
         <v>269</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>277</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>280</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
         <v>284</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="1" t="s">
         <v>287</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
         <v>290</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J93" s="1" t="s">
         <v>298</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>300</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
         <v>269</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
         <v>307</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
         <v>310</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
         <v>313</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>319</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>324</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
         <v>328</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
         <v>264</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>335</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
         <v>341</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
         <v>345</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
         <v>349</v>
       </c>
@@ -3877,7 +3883,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
         <v>353</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>33</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>357</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
         <v>362</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J112" s="1" t="s">
         <v>366</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J113" s="1" t="s">
         <v>367</v>
       </c>
@@ -3976,7 +3982,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="114" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J114" s="1" t="s">
         <v>370</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="115" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>373</v>
       </c>
@@ -4004,7 +4010,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
         <v>378</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="117" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J117" s="1" t="s">
         <v>383</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J118" s="1" t="s">
         <v>384</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="119" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J119" s="1" t="s">
         <v>387</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J120" s="1" t="s">
         <v>389</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J121" s="1" t="s">
         <v>391</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
         <v>393</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="123" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>396</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J124" s="1" t="s">
         <v>399</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J125" s="1" t="s">
         <v>400</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J126" s="1" t="s">
         <v>403</v>
       </c>
@@ -4152,10 +4158,10 @@
         <v>106</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="127" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="127" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J127" s="1" t="s">
         <v>404</v>
       </c>
@@ -4163,10 +4169,10 @@
         <v>405</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="128" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>406</v>
       </c>
@@ -4177,7 +4183,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>408</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J130" s="1" t="s">
         <v>413</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J131" s="1" t="s">
         <v>416</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J132" s="1" t="s">
         <v>417</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>418</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J134" s="1" t="s">
         <v>422</v>
       </c>
@@ -4267,7 +4273,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J135" s="1" t="s">
         <v>423</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>426</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J137" s="1" t="s">
         <v>431</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J138" s="1" t="s">
         <v>432</v>
       </c>
@@ -4323,7 +4329,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>433</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J140" s="1" t="s">
         <v>437</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J141" s="1" t="s">
         <v>438</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
         <v>439</v>
       </c>
@@ -4379,7 +4385,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>33</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>442</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>445</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>448</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>451</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>453</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>455</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>458</v>
       </c>
@@ -4503,7 +4509,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>460</v>
       </c>
@@ -4529,7 +4535,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>33</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>466</v>
       </c>
@@ -4557,7 +4563,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
         <v>470</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>473</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>476</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J157" s="1" t="s">
         <v>480</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J158" s="1" t="s">
         <v>482</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>483</v>
       </c>
@@ -4677,7 +4683,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J160" s="1" t="s">
         <v>487</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J161" s="1" t="s">
         <v>488</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>33</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>277</v>
       </c>
@@ -4718,7 +4724,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>492</v>
       </c>
@@ -4741,7 +4747,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>496</v>
       </c>
@@ -4767,7 +4773,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J166" s="1" t="s">
         <v>499</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>500</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J168" s="1" t="s">
         <v>503</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>504</v>
       </c>
@@ -4832,7 +4838,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
         <v>505</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J171" s="1" t="s">
         <v>509</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>510</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>515</v>
       </c>
@@ -4918,7 +4924,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
         <v>518</v>
       </c>
@@ -4932,7 +4938,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
         <v>519</v>
       </c>
@@ -4958,7 +4964,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>523</v>
       </c>
@@ -4984,7 +4990,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="177" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J177" s="1" t="s">
         <v>527</v>
       </c>
@@ -4995,7 +5001,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="178" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
         <v>528</v>
       </c>
@@ -5021,7 +5027,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="179" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J179" s="1" t="s">
         <v>531</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
         <v>532</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="181" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J181" s="1" t="s">
         <v>539</v>
       </c>
@@ -5072,825 +5078,825 @@
         <v>540</v>
       </c>
     </row>
-    <row r="182" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35FED3B-AB91-4F9A-98C8-0A5FDD934BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D0E90A-7C60-4ED8-863F-127A59CFF8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G106" workbookViewId="0">
-      <selection activeCell="M126" sqref="M126"/>
+    <sheetView tabSelected="1" topLeftCell="G100" workbookViewId="0">
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D0E90A-7C60-4ED8-863F-127A59CFF8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6E4066-E0EA-4072-8C09-E53156DA31EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1955,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
@@ -1968,7 +1968,7 @@
     <col min="5" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="72.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="40.5703125" customWidth="1"/>
     <col min="12" max="12" width="68.140625" customWidth="1"/>

--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6E4066-E0EA-4072-8C09-E53156DA31EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8E088D-F02A-4FEA-B589-6845ED299DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="75" windowWidth="37470" windowHeight="18015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="546">
   <si>
     <t>Gliederung</t>
   </si>
@@ -1126,12 +1126,6 @@
     <t>Pn2</t>
   </si>
   <si>
-    <t>OL / UL / ML</t>
-  </si>
-  <si>
-    <t>OL;Oberfeld;Oberlappen/UL;Unterfeld;Unterlappen/ML;Mittelfeld;Mittellappen</t>
-  </si>
-  <si>
     <t>Pn3</t>
   </si>
   <si>
@@ -1633,9 +1627,6 @@
     <t>... Dislokation</t>
   </si>
   <si>
-    <t>Fraktur [von %S6% ][%S7% Dislokation.]</t>
-  </si>
-  <si>
     <t>Fraktur [von %S6%] [%S7% Dislokation.]</t>
   </si>
   <si>
@@ -1658,6 +1649,15 @@
   </si>
   <si>
     <t>Ausdehnung über … cm</t>
+  </si>
+  <si>
+    <t>frisch / alt</t>
+  </si>
+  <si>
+    <t>frisch/alt</t>
+  </si>
+  <si>
+    <t>Fraktur[ %S8%][ von %S6%][ %S7% Dislokation].</t>
   </si>
 </sst>
 </file>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K126" sqref="K126"/>
+    <sheetView tabSelected="1" topLeftCell="H163" workbookViewId="0">
+      <selection activeCell="N180" sqref="N180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3697,7 +3697,7 @@
         <v>316</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>317</v>
@@ -3976,52 +3976,52 @@
         <v>367</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J114" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="115" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="N115" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="O115" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="116" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>187</v>
@@ -4030,15 +4030,15 @@
         <v>188</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J117" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>43</v>
@@ -4049,74 +4049,74 @@
     </row>
     <row r="118" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J118" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M118" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="119" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J119" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>106</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J120" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J121" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N122" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="123" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>187</v>
@@ -4125,12 +4125,12 @@
         <v>188</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="124" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J124" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>43</v>
@@ -4141,57 +4141,57 @@
     </row>
     <row r="125" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J125" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="L125" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="126" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J126" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>106</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J127" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="128" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>187</v>
@@ -4200,26 +4200,26 @@
         <v>188</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J130" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="L130" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J131" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>43</v>
@@ -4230,24 +4230,24 @@
     </row>
     <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J132" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>187</v>
@@ -4256,15 +4256,15 @@
         <v>188</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J134" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>43</v>
@@ -4275,24 +4275,24 @@
     </row>
     <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J135" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L135" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>187</v>
@@ -4301,15 +4301,15 @@
         <v>188</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J137" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>43</v>
@@ -4320,24 +4320,24 @@
     </row>
     <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J138" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>187</v>
@@ -4346,15 +4346,15 @@
         <v>188</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J140" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>43</v>
@@ -4365,24 +4365,24 @@
     </row>
     <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J141" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4390,18 +4390,18 @@
         <v>33</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>16</v>
@@ -4410,21 +4410,21 @@
         <v>38</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>43</v>
@@ -4433,94 +4433,94 @@
         <v>213</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>43</v>
@@ -4529,10 +4529,10 @@
         <v>213</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4540,18 +4540,18 @@
         <v>33</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>16</v>
@@ -4560,21 +4560,21 @@
         <v>38</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>43</v>
@@ -4583,44 +4583,44 @@
         <v>213</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N155" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="M155" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="N155" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J156" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>43</v>
@@ -4629,18 +4629,18 @@
         <v>213</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J157" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>227</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J158" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>187</v>
@@ -4659,16 +4659,16 @@
     </row>
     <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>43</v>
@@ -4677,18 +4677,18 @@
         <v>213</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J160" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>227</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="161" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J161" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>187</v>
@@ -4710,7 +4710,7 @@
         <v>33</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4718,24 +4718,24 @@
         <v>277</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>16</v>
@@ -4744,175 +4744,175 @@
         <v>38</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J166" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J168" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K170" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="L170" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J170" s="1" t="s">
+      <c r="N170" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J171" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="K172" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J172" s="1" t="s">
+      <c r="L172" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="K172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="L172" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="173" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>43</v>
@@ -4921,64 +4921,64 @@
         <v>213</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="K175" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J176" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>43</v>
@@ -4987,15 +4987,15 @@
         <v>213</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J177" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>227</v>
@@ -5003,19 +5003,19 @@
     </row>
     <row r="178" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>43</v>
@@ -5024,15 +5024,15 @@
         <v>213</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="179" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J179" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>227</v>
@@ -5040,45 +5040,55 @@
     </row>
     <row r="180" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K180" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J180" s="1" t="s">
+      <c r="L180" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K180" s="1" t="s">
+      <c r="M180" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O180" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="M180" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="O180" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="181" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J181" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="182" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="182" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>495</v>
+      </c>
+      <c r="K182" t="s">
+        <v>543</v>
+      </c>
+      <c r="L182" t="s">
+        <v>544</v>
+      </c>
+    </row>
     <row r="183" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="184" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="185" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8E088D-F02A-4FEA-B589-6845ED299DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A53BE0-8D6D-42AB-8CC6-B581C2E6C837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="75" windowWidth="37470" windowHeight="18015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="549">
   <si>
     <t>Gliederung</t>
   </si>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">Projektionsradiographie: Thorax in 2 Ebenen </t>
   </si>
   <si>
-    <t>Thorax im Liegen</t>
-  </si>
-  <si>
     <t>Projektionsradiographie: Thorax im Liegen</t>
   </si>
   <si>
@@ -1658,6 +1655,18 @@
   </si>
   <si>
     <t>Fraktur[ %S8%][ von %S6%][ %S7% Dislokation].</t>
+  </si>
+  <si>
+    <t>Thorax a.p.</t>
+  </si>
+  <si>
+    <t>Thorax a.p.;Thorax ap</t>
+  </si>
+  <si>
+    <t>Andere Fremdkörper 2</t>
+  </si>
+  <si>
+    <t>Andere Fremdkörper 2;Anderer Fremdkörper 2;Andere Fremdkörper Zwei</t>
   </si>
 </sst>
 </file>
@@ -1953,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:O1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H163" workbookViewId="0">
-      <selection activeCell="N180" sqref="N180"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2061,3036 +2070,3066 @@
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>545</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>546</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="I23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="I25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="I27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="I29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="J38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="J39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="I41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="42" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="I42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="M42" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="I43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="44" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="46" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="47" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="I47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="48" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J49" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="I50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="N50" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N52" s="1" t="s">
+    </row>
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N53" s="6" t="s">
+      <c r="O55" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O53" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J55" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="N55" s="6"/>
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="O56" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J57" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L57" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="N58" s="6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K59" s="2" t="s">
+    </row>
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J62" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N62" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J63" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="65" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J65" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>218</v>
+        <v>42</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="J66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>187</v>
+        <v>213</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J67" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>213</v>
+        <v>105</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="J68" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J69" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="J70" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J71" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>123</v>
+        <v>226</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="J72" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J73" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="J74" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>238</v>
+        <v>105</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J75" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J77" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="78" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>187</v>
+        <v>243</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J79" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="K80" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="N80" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="1" t="s">
+      <c r="K84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="K85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N85" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N83" s="1" t="s">
+    </row>
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N84" s="1" t="s">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="J88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="I91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N91" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="H94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J92" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="O92" s="1" t="s">
+    </row>
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J95" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J93" s="1" t="s">
+      <c r="K95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M95" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M93" s="1" t="s">
+    </row>
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="M100" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N100" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M98" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="N98" s="1" t="s">
+    </row>
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N99" s="1" t="s">
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="K102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N102" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>342</v>
+        <v>263</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="G105" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="N105" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="O106" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="J110" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="K110" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N111" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K108" s="2" t="s">
+    </row>
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L108" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J111" s="1" t="s">
+      <c r="N113" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N111" s="1" t="s">
+      <c r="O113" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J112" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="113" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J113" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="114" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J114" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J115" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J116" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="K114" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L114" s="1" t="s">
+    </row>
+    <row r="117" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="115" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="N117" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N115" s="1" t="s">
+      <c r="O117" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="O115" s="1" t="s">
+    </row>
+    <row r="118" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="116" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="G118" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J116" s="1" t="s">
+      <c r="K118" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N118" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K116" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N116" s="1" t="s">
+      <c r="O118" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="117" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J117" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="118" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J118" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="119" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J119" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>386</v>
+        <v>42</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J120" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K120" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="121" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J121" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J122" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J123" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M121" s="1" t="s">
+    </row>
+    <row r="124" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="122" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="1" t="s">
+      <c r="D124" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="N124" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="125" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="123" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="1" t="s">
+      <c r="J125" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J123" s="1" t="s">
+      <c r="K125" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N125" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="124" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J124" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="125" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J125" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="126" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J126" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>542</v>
+        <v>42</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J127" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J128" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="129" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J129" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K129" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="K127" s="1" t="s">
+      <c r="L129" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="130" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="L127" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="128" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N130" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="N128" s="1" t="s">
+    </row>
+    <row r="131" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="J131" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="K131" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N131" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="O131" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="132" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J132" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J133" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="134" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J134" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="135" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L135" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L129" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J130" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J131" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J132" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J133" s="1" t="s">
+      <c r="N135" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="O135" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="136" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J136" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J137" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="138" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L138" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L133" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J134" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J135" s="1" t="s">
+      <c r="N138" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="139" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J139" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J140" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K140" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="L140" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="L135" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="K136" s="2" t="s">
+    </row>
+    <row r="141" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L141" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L136" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J137" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J138" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K138" s="1" t="s">
+      <c r="N141" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="142" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J142" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J143" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L143" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="L138" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J140" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J141" s="1" t="s">
+    </row>
+    <row r="144" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="N144" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="N142" s="1" t="s">
+    </row>
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N145" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N143" s="1" t="s">
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N146" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N144" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N145" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N146" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J147" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="N147" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="O149" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="N151" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N153" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K151" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N151" s="1" t="s">
+      <c r="O153" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="O151" s="1" t="s">
+    </row>
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N154" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N152" s="1" t="s">
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N155" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L154" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N154" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="K155" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M155" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="N155" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="I158" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J158" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I156" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J156" s="1" t="s">
+      <c r="K158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N158" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K156" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N156" s="1" t="s">
+      <c r="O158" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J159" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="O156" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J157" s="1" t="s">
+      <c r="K159" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K157" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L157" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J158" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="L159" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N159" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="O159" s="1" t="s">
-        <v>484</v>
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J160" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J162" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J163" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K160" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J161" s="1" t="s">
+      <c r="K163" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N164" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K161" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N162" s="1" t="s">
+    </row>
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H163" s="1" t="s">
+      <c r="N165" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="N163" s="1" t="s">
+    </row>
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="B166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="D166" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="I166" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N166" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N164" s="1" t="s">
+    </row>
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="1" t="s">
+      <c r="D167" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J167" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J165" s="1" t="s">
+      <c r="K167" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N167" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="K165" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N165" s="1" t="s">
+    </row>
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J168" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J166" s="1" t="s">
+      <c r="K168" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="K166" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="1" t="s">
+      <c r="D169" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J169" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J167" s="1" t="s">
+      <c r="K169" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N169" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K167" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N167" s="1" t="s">
+    </row>
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J170" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J168" s="1" t="s">
+      <c r="K170" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="K168" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="1" t="s">
+      <c r="D171" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="1" t="s">
+      <c r="I172" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J172" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J170" s="1" t="s">
+      <c r="K172" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="K170" s="1" t="s">
+      <c r="L172" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="N172" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="L170" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="N170" s="1" t="s">
+    </row>
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J173" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J171" s="1" t="s">
+      <c r="K173" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="K171" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M171" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="1" t="s">
+      <c r="D174" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J174" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J172" s="1" t="s">
+      <c r="K174" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="K172" s="1" t="s">
+      <c r="L174" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="N172" s="1" t="s">
+    </row>
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="1" t="s">
+      <c r="D175" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J173" s="1" t="s">
+      <c r="K175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N175" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="K173" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N173" s="1" t="s">
+    </row>
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="1" t="s">
+      <c r="D176" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="177" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C175" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="H177" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J177" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J175" s="1" t="s">
+      <c r="K177" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N177" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="K175" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L175" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L176" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="177" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J177" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L177" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="178" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="179" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J179" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="180" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>532</v>
+        <v>42</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="M180" s="1" t="s">
-        <v>534</v>
+        <v>212</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="O180" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="181" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J181" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="183" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J183" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M183" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="K181" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M181" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="182" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J182" t="s">
-        <v>495</v>
-      </c>
-      <c r="K182" t="s">
+    </row>
+    <row r="184" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>494</v>
+      </c>
+      <c r="K184" t="s">
+        <v>542</v>
+      </c>
+      <c r="L184" t="s">
         <v>543</v>
       </c>
-      <c r="L182" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="183" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
     <row r="185" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="186" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="187" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5907,6 +5946,8 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A53BE0-8D6D-42AB-8CC6-B581C2E6C837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4709A-4D79-4143-90DF-2518A483E97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="550">
   <si>
     <t>Gliederung</t>
   </si>
@@ -1667,6 +1667,9 @@
   </si>
   <si>
     <t>Andere Fremdkörper 2;Anderer Fremdkörper 2;Andere Fremdkörper Zwei</t>
+  </si>
+  <si>
+    <t>Variable-Default</t>
   </si>
 </sst>
 </file>
@@ -1738,14 +1741,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,32 +1977,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1002"/>
+  <dimension ref="A1:R1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="115.7109375" customWidth="1"/>
-    <col min="5" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" customWidth="1"/>
-    <col min="12" max="12" width="68.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" customWidth="1"/>
-    <col min="14" max="14" width="170.85546875" customWidth="1"/>
-    <col min="15" max="15" width="81.140625" customWidth="1"/>
-    <col min="16" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="51.42578125" customWidth="1"/>
+    <col min="16" max="16" width="39.5703125" customWidth="1"/>
+    <col min="17" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2025,16 +2042,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2047,48 +2067,95 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>545</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>546</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2098,30 +2165,66 @@
       <c r="L5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2137,20 +2240,37 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2163,14 +2283,27 @@
       <c r="L9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
         <v>46</v>
       </c>
@@ -2180,8 +2313,23 @@
       <c r="L10" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2191,14 +2339,26 @@
       <c r="L11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2211,14 +2371,27 @@
       <c r="L12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2228,8 +2401,23 @@
       <c r="L13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2239,14 +2427,26 @@
       <c r="L14" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2259,14 +2459,27 @@
       <c r="L15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,8 +2489,23 @@
       <c r="L16" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2287,14 +2515,26 @@
       <c r="L17" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2307,14 +2547,27 @@
       <c r="L18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="1" t="s">
         <v>68</v>
       </c>
@@ -2324,8 +2577,23 @@
       <c r="L19" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="1" t="s">
         <v>69</v>
       </c>
@@ -2335,14 +2603,26 @@
       <c r="L20" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2355,14 +2635,27 @@
       <c r="L21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
         <v>73</v>
       </c>
@@ -2372,14 +2665,26 @@
       <c r="L22" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2392,14 +2697,27 @@
       <c r="L23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2409,14 +2727,26 @@
       <c r="L24" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2429,14 +2759,27 @@
       <c r="L25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="1" t="s">
         <v>83</v>
       </c>
@@ -2446,14 +2789,26 @@
       <c r="L26" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2466,14 +2821,27 @@
       <c r="L27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="1" t="s">
         <v>88</v>
       </c>
@@ -2483,14 +2851,26 @@
       <c r="L28" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2500,20 +2880,31 @@
       <c r="K29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="M29" s="3"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2523,20 +2914,31 @@
       <c r="K30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="M30" s="3"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
         <v>35</v>
       </c>
@@ -2549,51 +2951,88 @@
       <c r="L31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="M32" s="3"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2606,14 +3045,27 @@
       <c r="L34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="1" t="s">
         <v>110</v>
       </c>
@@ -2623,8 +3075,23 @@
       <c r="L35" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="1" t="s">
         <v>113</v>
       </c>
@@ -2634,14 +3101,26 @@
       <c r="L36" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="1"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2654,13 +3133,25 @@
       <c r="L37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="M37" s="1"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="1" t="s">
         <v>120</v>
       </c>
@@ -2670,27 +3161,53 @@
       <c r="L38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
       <c r="J39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="5" t="s">
         <v>124</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="40" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="1" t="s">
         <v>127</v>
       </c>
@@ -2700,14 +3217,26 @@
       <c r="L40" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="41" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="1"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="1" t="s">
         <v>35</v>
       </c>
@@ -2720,17 +3249,28 @@
       <c r="L41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="M41" s="1"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2740,23 +3280,33 @@
       <c r="K42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2769,31 +3319,56 @@
       <c r="L43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="M43" s="1"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="45" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="1" t="s">
         <v>35</v>
       </c>
@@ -2803,14 +3378,28 @@
       <c r="K45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="46" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="1" t="s">
         <v>153</v>
       </c>
@@ -2820,37 +3409,60 @@
       <c r="L46" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="1"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="M47" s="3"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="48" spans="3:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="1" t="s">
         <v>35</v>
       </c>
@@ -2863,97 +3475,186 @@
       <c r="L48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="M48" s="1"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
       <c r="J49" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="3"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="M50" s="3"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
         <v>547</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>548</v>
       </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="M52" s="3"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
       <c r="J53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
         <v>174</v>
       </c>
@@ -2963,43 +3664,72 @@
       <c r="E55" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="3" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="M56" s="1"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
       <c r="J57" s="1" t="s">
         <v>185</v>
       </c>
@@ -3009,93 +3739,162 @@
       <c r="L57" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="6"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="3" t="s">
         <v>181</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="M58" s="1"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
       <c r="J59" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="1"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="3" t="s">
         <v>181</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N60" s="6" t="s">
+      <c r="M60" s="1"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
       <c r="J61" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N61" s="6"/>
-    </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="1"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
@@ -3111,43 +3910,72 @@
       <c r="E63" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
       <c r="G64" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="M64" s="1"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="65" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="1" t="s">
         <v>211</v>
       </c>
@@ -3157,8 +3985,23 @@
       <c r="L65" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="66" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="1"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="1" t="s">
         <v>213</v>
       </c>
@@ -3168,45 +4011,85 @@
       <c r="L66" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="67" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="1"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
       <c r="J67" s="1" t="s">
         <v>216</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="68" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+    </row>
+    <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
       <c r="G68" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="M68" s="1"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="P68" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="69" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="1" t="s">
         <v>222</v>
       </c>
@@ -3216,19 +4099,49 @@
       <c r="L69" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="70" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="1"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+    </row>
+    <row r="70" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="71" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+    </row>
+    <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="1" t="s">
         <v>224</v>
       </c>
@@ -3238,37 +4151,61 @@
       <c r="L71" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" s="1"/>
+      <c r="N71" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="72" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+    </row>
+    <row r="72" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="M72" s="1"/>
+      <c r="N72" s="2"/>
       <c r="O72" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="73" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="1" t="s">
         <v>232</v>
       </c>
@@ -3278,19 +4215,49 @@
       <c r="L73" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="74" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="1"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+    </row>
+    <row r="74" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="1" t="s">
         <v>233</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="75" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="1" t="s">
         <v>234</v>
       </c>
@@ -3300,17 +4267,29 @@
       <c r="L75" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" s="1"/>
+      <c r="N75" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="76" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+    </row>
+    <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="1" t="s">
         <v>236</v>
       </c>
@@ -3320,14 +4299,27 @@
       <c r="L76" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N76" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="2"/>
       <c r="O76" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="77" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="1" t="s">
         <v>238</v>
       </c>
@@ -3337,14 +4329,27 @@
       <c r="L77" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="78" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="1"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+    </row>
+    <row r="78" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="1" t="s">
         <v>243</v>
       </c>
@@ -3354,14 +4359,27 @@
       <c r="L78" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="2"/>
       <c r="O78" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="79" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P78" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
       <c r="J79" s="1" t="s">
         <v>245</v>
       </c>
@@ -3371,31 +4389,57 @@
       <c r="L79" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="80" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="1"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+    </row>
+    <row r="80" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
       <c r="J80" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="2"/>
       <c r="O80" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
       <c r="J81" s="1" t="s">
         <v>249</v>
       </c>
@@ -3405,28 +4449,55 @@
       <c r="L81" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="1"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+    </row>
+    <row r="82" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="M82" s="1"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+    </row>
+    <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="1" t="s">
         <v>253</v>
       </c>
@@ -3436,8 +4507,23 @@
       <c r="L83" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="1"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+    </row>
+    <row r="84" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
       <c r="J84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3447,14 +4533,27 @@
       <c r="L84" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="1"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+    </row>
+    <row r="85" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="1" t="s">
         <v>257</v>
       </c>
@@ -3464,22 +4563,44 @@
       <c r="L85" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="M85" s="1"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+    </row>
+    <row r="86" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+    </row>
+    <row r="87" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
@@ -3489,20 +4610,37 @@
       <c r="E87" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+    </row>
+    <row r="88" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
       <c r="I88" s="1" t="s">
         <v>4</v>
       </c>
@@ -3515,20 +4653,30 @@
       <c r="L88" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="M88" s="1"/>
+      <c r="N88" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+    </row>
+    <row r="89" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="1" t="s">
         <v>4</v>
       </c>
@@ -3541,31 +4689,50 @@
       <c r="L89" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="M89" s="1"/>
+      <c r="N89" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+    </row>
+    <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+    </row>
+    <row r="91" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="1" t="s">
         <v>280</v>
       </c>
@@ -3575,54 +4742,96 @@
       <c r="E91" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+    </row>
+    <row r="92" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
         <v>283</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="1" t="s">
         <v>277</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="1" t="s">
         <v>277</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+    </row>
+    <row r="94" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="1" t="s">
         <v>277</v>
       </c>
@@ -3638,31 +4847,50 @@
       <c r="L94" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M94" s="1"/>
+      <c r="N94" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+    </row>
+    <row r="95" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
       <c r="J95" s="1" t="s">
         <v>297</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+    </row>
+    <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="B96" s="2"/>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
@@ -3672,90 +4900,171 @@
       <c r="E96" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F96" s="2"/>
       <c r="G96" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+    </row>
+    <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O97" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+    </row>
+    <row r="98" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="1" t="s">
         <v>306</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
       <c r="G98" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+    </row>
+    <row r="99" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>310</v>
       </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
       <c r="G99" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+    </row>
+    <row r="100" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
       <c r="J100" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+    </row>
+    <row r="101" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+    </row>
+    <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>318</v>
       </c>
+      <c r="B102" s="2"/>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
@@ -3765,9 +5074,12 @@
       <c r="E102" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F102" s="2"/>
       <c r="G102" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
       <c r="J102" s="1" t="s">
         <v>321</v>
       </c>
@@ -3777,20 +5089,31 @@
       <c r="L102" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="M102" s="1"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+    </row>
+    <row r="103" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="1" t="s">
         <v>323</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
       <c r="G103" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
       <c r="J103" s="1" t="s">
         <v>325</v>
       </c>
@@ -3800,20 +5123,31 @@
       <c r="L103" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N103" s="1" t="s">
+      <c r="M103" s="1"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+    </row>
+    <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="1" t="s">
         <v>327</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
       <c r="G104" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
       <c r="J104" s="1" t="s">
         <v>329</v>
       </c>
@@ -3823,20 +5157,31 @@
       <c r="L104" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="M104" s="1"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+    </row>
+    <row r="105" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
       <c r="G105" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
       <c r="J105" s="1" t="s">
         <v>332</v>
       </c>
@@ -3846,14 +5191,20 @@
       <c r="L105" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N105" s="1" t="s">
+      <c r="M105" s="1"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+    </row>
+    <row r="106" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
         <v>335</v>
       </c>
@@ -3863,93 +5214,171 @@
       <c r="E106" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N106" s="1" t="s">
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="O106" s="1" t="s">
+      <c r="P106" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+    </row>
+    <row r="107" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>341</v>
       </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N107" s="1" t="s">
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="O107" s="1" t="s">
+      <c r="P107" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+    </row>
+    <row r="108" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
         <v>344</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
       <c r="G108" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N108" s="1" t="s">
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="O108" s="1" t="s">
+      <c r="P108" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+    </row>
+    <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>349</v>
       </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
       <c r="G109" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N109" s="1" t="s">
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O109" s="1" t="s">
+      <c r="P109" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+    </row>
+    <row r="110" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="1" t="s">
         <v>352</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
       <c r="J110" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="K110" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="1"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+    </row>
+    <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N111" s="1" t="s">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+    </row>
+    <row r="112" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>356</v>
       </c>
@@ -3965,43 +5394,72 @@
       <c r="E112" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N112" s="1" t="s">
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O112" s="1" t="s">
+      <c r="P112" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="113" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+    </row>
+    <row r="113" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
       <c r="G113" s="1" t="s">
         <v>358</v>
       </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
       <c r="J113" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N113" s="1" t="s">
+      <c r="M113" s="1"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="O113" s="1" t="s">
+      <c r="P113" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="114" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+    </row>
+    <row r="114" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
       <c r="J114" s="1" t="s">
         <v>365</v>
       </c>
@@ -4011,8 +5469,23 @@
       <c r="L114" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="115" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M114" s="1"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+    </row>
+    <row r="115" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
       <c r="J115" s="1" t="s">
         <v>366</v>
       </c>
@@ -4022,8 +5495,23 @@
       <c r="L115" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="116" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M115" s="1"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+    </row>
+    <row r="116" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
       <c r="J116" s="1" t="s">
         <v>367</v>
       </c>
@@ -4033,51 +5521,89 @@
       <c r="L116" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="117" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="1"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+    </row>
+    <row r="117" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
         <v>370</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>371</v>
       </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
       <c r="G117" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N117" s="1" t="s">
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="O117" s="1" t="s">
+      <c r="P117" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="118" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+    </row>
+    <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="1" t="s">
         <v>375</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
       <c r="G118" s="1" t="s">
         <v>372</v>
       </c>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N118" s="1" t="s">
+      <c r="M118" s="1"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="O118" s="1" t="s">
+      <c r="P118" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="119" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+    </row>
+    <row r="119" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
       <c r="J119" s="1" t="s">
         <v>380</v>
       </c>
@@ -4087,89 +5613,189 @@
       <c r="L119" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="120" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="1"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+    </row>
+    <row r="120" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
       <c r="J120" s="1" t="s">
         <v>381</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M120" s="1" t="s">
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="121" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+    </row>
+    <row r="121" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
         <v>384</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M121" s="1" t="s">
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="122" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+    </row>
+    <row r="122" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
       <c r="J122" s="1" t="s">
         <v>386</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M122" s="1" t="s">
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="123" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+    </row>
+    <row r="123" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
       <c r="J123" s="1" t="s">
         <v>388</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="124" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+    </row>
+    <row r="124" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="1" t="s">
         <v>390</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>390</v>
       </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
       <c r="G124" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N124" s="1" t="s">
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="125" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+    </row>
+    <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="1" t="s">
         <v>393</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
       <c r="G125" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
       <c r="J125" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N125" s="1" t="s">
+      <c r="M125" s="1"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="126" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+    </row>
+    <row r="126" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
       <c r="J126" s="1" t="s">
         <v>396</v>
       </c>
@@ -4179,8 +5805,23 @@
       <c r="L126" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="127" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M126" s="1"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+    </row>
+    <row r="127" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
       <c r="J127" s="1" t="s">
         <v>397</v>
       </c>
@@ -4190,19 +5831,49 @@
       <c r="L127" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="128" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="1"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+    </row>
+    <row r="128" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
       <c r="J128" s="1" t="s">
         <v>400</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="129" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+    </row>
+    <row r="129" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
       <c r="J129" s="1" t="s">
         <v>401</v>
       </c>
@@ -4212,42 +5883,83 @@
       <c r="L129" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="130" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="1"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+    </row>
+    <row r="130" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
       <c r="C130" s="1" t="s">
         <v>403</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="N130" s="1" t="s">
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="131" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+    </row>
+    <row r="131" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
       <c r="C131" s="1" t="s">
         <v>405</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
       <c r="J131" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N131" s="1" t="s">
+      <c r="M131" s="1"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="O131" s="1" t="s">
+      <c r="P131" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="132" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+    </row>
+    <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
       <c r="J132" s="1" t="s">
         <v>410</v>
       </c>
@@ -4257,8 +5969,23 @@
       <c r="L132" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="133" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="1"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+    </row>
+    <row r="133" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
       <c r="J133" s="1" t="s">
         <v>413</v>
       </c>
@@ -4268,8 +5995,23 @@
       <c r="L133" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="134" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="1"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+    </row>
+    <row r="134" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
       <c r="J134" s="1" t="s">
         <v>414</v>
       </c>
@@ -4279,31 +6021,57 @@
       <c r="L134" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="135" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="1"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+    </row>
+    <row r="135" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="1" t="s">
         <v>415</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>415</v>
       </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
       <c r="J135" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N135" s="1" t="s">
+      <c r="M135" s="1"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O135" s="1" t="s">
+      <c r="P135" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="136" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+    </row>
+    <row r="136" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
       <c r="J136" s="1" t="s">
         <v>419</v>
       </c>
@@ -4313,8 +6081,23 @@
       <c r="L136" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="137" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="1"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+    </row>
+    <row r="137" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
       <c r="J137" s="1" t="s">
         <v>420</v>
       </c>
@@ -4324,31 +6107,57 @@
       <c r="L137" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="138" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M137" s="1"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+    </row>
+    <row r="138" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
         <v>423</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>424</v>
       </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
       <c r="J138" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N138" s="1" t="s">
+      <c r="M138" s="1"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="O138" s="1" t="s">
+      <c r="P138" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="139" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+    </row>
+    <row r="139" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
       <c r="J139" s="1" t="s">
         <v>428</v>
       </c>
@@ -4358,8 +6167,23 @@
       <c r="L139" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="140" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M139" s="1"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+    </row>
+    <row r="140" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
       <c r="J140" s="1" t="s">
         <v>429</v>
       </c>
@@ -4369,31 +6193,57 @@
       <c r="L140" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="141" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="1"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+    </row>
+    <row r="141" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>430</v>
       </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
       <c r="J141" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="3" t="s">
         <v>186</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N141" s="1" t="s">
+      <c r="M141" s="1"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="O141" s="1" t="s">
+      <c r="P141" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="142" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+    </row>
+    <row r="142" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
       <c r="J142" s="1" t="s">
         <v>434</v>
       </c>
@@ -4403,8 +6253,23 @@
       <c r="L142" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="143" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M142" s="1"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+    </row>
+    <row r="143" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
       <c r="J143" s="1" t="s">
         <v>435</v>
       </c>
@@ -4414,30 +6279,68 @@
       <c r="L143" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="144" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M143" s="1"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+    </row>
+    <row r="144" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="1" t="s">
         <v>436</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="N144" s="1" t="s">
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+    </row>
+    <row r="145" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N145" s="1" t="s">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+    </row>
+    <row r="146" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="B146" s="2"/>
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
@@ -4447,20 +6350,37 @@
       <c r="E146" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
       <c r="I146" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N146" s="1" t="s">
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+    </row>
+    <row r="147" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="1" t="s">
         <v>442</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
       <c r="I147" s="1" t="s">
         <v>4</v>
       </c>
@@ -4473,90 +6393,170 @@
       <c r="L147" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N147" s="1" t="s">
+      <c r="M147" s="1"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+    </row>
+    <row r="148" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="1" t="s">
         <v>445</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
       <c r="I148" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N148" s="1" t="s">
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+    </row>
+    <row r="149" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="1" t="s">
         <v>448</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
       <c r="I149" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N149" s="1" t="s">
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+    </row>
+    <row r="150" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="1" t="s">
         <v>450</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
       <c r="I150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N150" s="1" t="s">
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+    </row>
+    <row r="151" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="1" t="s">
         <v>452</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>452</v>
       </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
       <c r="I151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N151" s="1" t="s">
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="O151" s="1" t="s">
+      <c r="P151" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+    </row>
+    <row r="152" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
       <c r="C152" s="1" t="s">
         <v>455</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>455</v>
       </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
       <c r="I152" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N152" s="1" t="s">
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+    </row>
+    <row r="153" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
       <c r="C153" s="1" t="s">
         <v>457</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
       <c r="I153" s="1" t="s">
         <v>4</v>
       </c>
@@ -4569,25 +6569,46 @@
       <c r="L153" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N153" s="1" t="s">
+      <c r="M153" s="1"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="O153" s="1" t="s">
+      <c r="P153" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+    </row>
+    <row r="154" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N154" s="1" t="s">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+    </row>
+    <row r="155" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>463</v>
       </c>
+      <c r="B155" s="2"/>
       <c r="C155" s="1" t="s">
         <v>464</v>
       </c>
@@ -4597,20 +6618,37 @@
       <c r="E155" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
       <c r="I155" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N155" s="1" t="s">
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+    </row>
+    <row r="156" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
       <c r="C156" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>467</v>
       </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
       <c r="I156" s="1" t="s">
         <v>464</v>
       </c>
@@ -4623,17 +6661,28 @@
       <c r="L156" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N156" s="1" t="s">
+      <c r="M156" s="1"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+    </row>
+    <row r="157" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
       <c r="C157" s="1" t="s">
         <v>470</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>470</v>
       </c>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
       <c r="I157" s="1" t="s">
         <v>464</v>
       </c>
@@ -4643,20 +6692,31 @@
       <c r="K157" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M157" s="1" t="s">
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="N157" s="1" t="s">
+      <c r="O157" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+    </row>
+    <row r="158" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="1" t="s">
         <v>473</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>474</v>
       </c>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
       <c r="I158" s="1" t="s">
         <v>464</v>
       </c>
@@ -4669,14 +6729,27 @@
       <c r="L158" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N158" s="1" t="s">
-        <v>476</v>
-      </c>
+      <c r="M158" s="1"/>
+      <c r="N158" s="2"/>
       <c r="O158" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P158" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+    </row>
+    <row r="159" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
       <c r="J159" s="1" t="s">
         <v>477</v>
       </c>
@@ -4686,8 +6759,23 @@
       <c r="L159" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M159" s="1"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+    </row>
+    <row r="160" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
       <c r="J160" s="1" t="s">
         <v>479</v>
       </c>
@@ -4697,14 +6785,26 @@
       <c r="L160" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M160" s="1"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+    </row>
+    <row r="161" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
       <c r="I161" s="1" t="s">
         <v>464</v>
       </c>
@@ -4717,14 +6817,27 @@
       <c r="L161" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N161" s="1" t="s">
-        <v>483</v>
-      </c>
+      <c r="M161" s="1"/>
+      <c r="N161" s="2"/>
       <c r="O161" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P161" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+    </row>
+    <row r="162" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
       <c r="J162" s="1" t="s">
         <v>484</v>
       </c>
@@ -4734,8 +6847,23 @@
       <c r="L162" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M162" s="1"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+    </row>
+    <row r="163" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
       <c r="J163" s="1" t="s">
         <v>485</v>
       </c>
@@ -4745,27 +6873,64 @@
       <c r="L163" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M163" s="1"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+    </row>
+    <row r="164" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N164" s="1" t="s">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+    </row>
+    <row r="165" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
       <c r="H165" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="N165" s="1" t="s">
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+    </row>
+    <row r="166" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>489</v>
       </c>
@@ -4781,20 +6946,36 @@
       <c r="E166" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
       <c r="I166" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N166" s="1" t="s">
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+    </row>
+    <row r="167" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
       <c r="C167" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>493</v>
       </c>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
       <c r="H167" s="1" t="s">
         <v>487</v>
       </c>
@@ -4810,28 +6991,53 @@
       <c r="L167" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N167" s="1" t="s">
+      <c r="M167" s="1"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+    </row>
+    <row r="168" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
       <c r="J168" s="1" t="s">
         <v>496</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+    </row>
+    <row r="169" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
       <c r="C169" s="1" t="s">
         <v>497</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>497</v>
       </c>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
       <c r="H169" s="1" t="s">
         <v>487</v>
       </c>
@@ -4847,45 +7053,84 @@
       <c r="L169" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N169" s="1" t="s">
+      <c r="M169" s="1"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+    </row>
+    <row r="170" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
       <c r="J170" s="1" t="s">
         <v>500</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M170" s="1" t="s">
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+    </row>
+    <row r="171" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="1" t="s">
         <v>501</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>501</v>
       </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
       <c r="H171" s="1" t="s">
         <v>487</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="N171" s="1" t="s">
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+    </row>
+    <row r="172" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
       <c r="C172" s="1" t="s">
         <v>502</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>502</v>
       </c>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
       <c r="I172" s="1" t="s">
         <v>490</v>
       </c>
@@ -4898,28 +7143,53 @@
       <c r="L172" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="N172" s="1" t="s">
+      <c r="M172" s="1"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+    </row>
+    <row r="173" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
       <c r="J173" s="1" t="s">
         <v>506</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M173" s="1" t="s">
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+    </row>
+    <row r="174" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
       <c r="C174" s="1" t="s">
         <v>507</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>507</v>
       </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
       <c r="H174" s="1" t="s">
         <v>487</v>
       </c>
@@ -4935,17 +7205,27 @@
       <c r="L174" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="N174" s="1" t="s">
+      <c r="M174" s="1"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+    </row>
+    <row r="175" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
       <c r="C175" s="1" t="s">
         <v>512</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>512</v>
       </c>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
       <c r="H175" s="1" t="s">
         <v>487</v>
       </c>
@@ -4961,31 +7241,55 @@
       <c r="L175" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N175" s="1" t="s">
+      <c r="M175" s="1"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+    </row>
+    <row r="176" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
       <c r="C176" s="1" t="s">
         <v>515</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>515</v>
       </c>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
       <c r="H176" s="1" t="s">
         <v>487</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="177" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+    </row>
+    <row r="177" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
       <c r="H177" s="1" t="s">
         <v>487</v>
       </c>
@@ -5001,17 +7305,27 @@
       <c r="L177" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="N177" s="1" t="s">
+      <c r="M177" s="1"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="178" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+    </row>
+    <row r="178" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="1" t="s">
         <v>520</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>521</v>
       </c>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
       <c r="H178" s="1" t="s">
         <v>487</v>
       </c>
@@ -5027,11 +7341,25 @@
       <c r="L178" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N178" s="1" t="s">
+      <c r="M178" s="1"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="179" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+    </row>
+    <row r="179" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
       <c r="J179" s="1" t="s">
         <v>524</v>
       </c>
@@ -5041,14 +7369,25 @@
       <c r="L179" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="180" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M179" s="1"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+    </row>
+    <row r="180" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>525</v>
       </c>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="1" t="s">
         <v>487</v>
       </c>
@@ -5064,11 +7403,25 @@
       <c r="L180" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="N180" s="1" t="s">
+      <c r="M180" s="1"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="181" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+    </row>
+    <row r="181" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
       <c r="J181" s="1" t="s">
         <v>528</v>
       </c>
@@ -5078,14 +7431,26 @@
       <c r="L181" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="182" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M181" s="1"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+    </row>
+    <row r="182" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="1" t="s">
         <v>529</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>529</v>
       </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
       <c r="I182" s="1" t="s">
         <v>490</v>
       </c>
@@ -5098,46 +7463,79 @@
       <c r="L182" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="M182" s="1" t="s">
+      <c r="M182" s="1"/>
+      <c r="N182" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="N182" s="1" t="s">
+      <c r="O182" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="O182" s="1" t="s">
+      <c r="P182" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="183" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+    </row>
+    <row r="183" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
       <c r="J183" s="1" t="s">
         <v>535</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="M183" s="1" t="s">
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="184" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J184" t="s">
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+    </row>
+    <row r="184" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="K184" t="s">
+      <c r="K184" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="L184" t="s">
+      <c r="L184" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="185" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+    </row>
+    <row r="185" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4709A-4D79-4143-90DF-2518A483E97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F17071-4207-4DCC-8372-CB5403E27CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="549">
   <si>
     <t>Gliederung</t>
   </si>
@@ -703,9 +703,6 @@
     <t>gering/mäßig/deutlich</t>
   </si>
   <si>
-    <t>Mediastinalshift</t>
-  </si>
-  <si>
     <t>Spannungspneumothorax</t>
   </si>
   <si>
@@ -967,9 +964,6 @@
     <t>H1</t>
   </si>
   <si>
-    <t>ZahlBruch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Herz-Thorax-Relation beträgt %H1%. </t>
   </si>
   <si>
@@ -1670,6 +1664,9 @@
   </si>
   <si>
     <t>Variable-Default</t>
+  </si>
+  <si>
+    <t>Mediastinalshift …</t>
   </si>
 </sst>
 </file>
@@ -1979,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2042,7 +2039,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -2118,10 +2115,10 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -3572,10 +3569,10 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -4153,7 +4150,7 @@
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
-        <v>227</v>
+        <v>548</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -4164,10 +4161,10 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -4177,7 +4174,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>186</v>
@@ -4188,10 +4185,10 @@
       <c r="M72" s="1"/>
       <c r="N72" s="2"/>
       <c r="O72" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
@@ -4207,7 +4204,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>121</v>
@@ -4233,7 +4230,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>105</v>
@@ -4259,7 +4256,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>225</v>
@@ -4269,7 +4266,7 @@
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>227</v>
+        <v>548</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -4280,10 +4277,10 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4291,7 +4288,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>42</v>
@@ -4302,10 +4299,10 @@
       <c r="M76" s="1"/>
       <c r="N76" s="2"/>
       <c r="O76" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
@@ -4321,13 +4318,13 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="2"/>
@@ -4340,10 +4337,10 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -4351,7 +4348,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>42</v>
@@ -4362,10 +4359,10 @@
       <c r="M78" s="1"/>
       <c r="N78" s="2"/>
       <c r="O78" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
@@ -4381,13 +4378,13 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K79" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L79" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="2"/>
@@ -4400,10 +4397,10 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -4411,7 +4408,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>186</v>
@@ -4422,10 +4419,10 @@
       <c r="M80" s="1"/>
       <c r="N80" s="2"/>
       <c r="O80" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
@@ -4441,7 +4438,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>42</v>
@@ -4460,10 +4457,10 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -4471,7 +4468,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>186</v>
@@ -4482,7 +4479,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="2"/>
       <c r="O82" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -4499,7 +4496,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>42</v>
@@ -4525,13 +4522,13 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="2"/>
@@ -4544,10 +4541,10 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -4555,7 +4552,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>42</v>
@@ -4566,7 +4563,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="2"/>
       <c r="O85" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -4590,7 +4587,7 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -4598,14 +4595,14 @@
     </row>
     <row r="87" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>16</v>
@@ -4622,7 +4619,7 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -4632,10 +4629,10 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -4645,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>121</v>
@@ -4655,10 +4652,10 @@
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O88" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -4668,10 +4665,10 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -4681,30 +4678,30 @@
         <v>4</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O89" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
     <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4713,7 +4710,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -4722,7 +4719,7 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -4730,14 +4727,14 @@
     </row>
     <row r="91" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>16</v>
@@ -4754,7 +4751,7 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -4764,19 +4761,19 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -4784,7 +4781,7 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -4794,19 +4791,19 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -4814,7 +4811,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -4824,38 +4821,38 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J94" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
@@ -4871,7 +4868,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>105</v>
@@ -4879,7 +4876,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4888,21 +4885,21 @@
     </row>
     <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -4912,7 +4909,7 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -4922,15 +4919,15 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -4940,10 +4937,10 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="P97" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
@@ -4952,15 +4949,15 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -4970,7 +4967,7 @@
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -4980,15 +4977,15 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -4998,7 +4995,7 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -5008,10 +5005,10 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -5019,18 +5016,18 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -5054,7 +5051,7 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -5062,26 +5059,26 @@
     </row>
     <row r="102" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>42</v>
@@ -5092,7 +5089,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="2"/>
       <c r="O102" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -5102,20 +5099,20 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>42</v>
@@ -5126,7 +5123,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="2"/>
       <c r="O103" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -5136,20 +5133,20 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>42</v>
@@ -5160,7 +5157,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="2"/>
       <c r="O104" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -5170,20 +5167,20 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>42</v>
@@ -5194,7 +5191,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="2"/>
       <c r="O105" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -5202,21 +5199,21 @@
     </row>
     <row r="106" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -5226,10 +5223,10 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
@@ -5238,15 +5235,15 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -5256,10 +5253,10 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
@@ -5268,15 +5265,15 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -5286,10 +5283,10 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
@@ -5298,15 +5295,15 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -5316,10 +5313,10 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
@@ -5328,10 +5325,10 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -5339,7 +5336,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>186</v>
@@ -5372,7 +5369,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -5380,23 +5377,23 @@
     </row>
     <row r="112" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -5406,10 +5403,10 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
@@ -5418,20 +5415,20 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>186</v>
@@ -5442,10 +5439,10 @@
       <c r="M113" s="1"/>
       <c r="N113" s="2"/>
       <c r="O113" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
@@ -5461,7 +5458,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>42</v>
@@ -5487,13 +5484,13 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M115" s="1"/>
       <c r="N115" s="2"/>
@@ -5513,13 +5510,13 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L116" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="2"/>
@@ -5532,15 +5529,15 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -5550,10 +5547,10 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
@@ -5562,20 +5559,20 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>186</v>
@@ -5586,10 +5583,10 @@
       <c r="M118" s="1"/>
       <c r="N118" s="2"/>
       <c r="O118" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
@@ -5605,7 +5602,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>42</v>
@@ -5631,15 +5628,15 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -5657,7 +5654,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>105</v>
@@ -5665,7 +5662,7 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -5683,15 +5680,15 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -5709,15 +5706,15 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -5728,15 +5725,15 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -5746,7 +5743,7 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -5756,20 +5753,20 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>186</v>
@@ -5780,7 +5777,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="2"/>
       <c r="O125" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
@@ -5797,7 +5794,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>42</v>
@@ -5823,13 +5820,13 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L127" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="2"/>
@@ -5849,7 +5846,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>105</v>
@@ -5857,7 +5854,7 @@
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -5875,13 +5872,13 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="2"/>
@@ -5894,10 +5891,10 @@
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -5910,7 +5907,7 @@
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
@@ -5920,10 +5917,10 @@
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -5931,7 +5928,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>186</v>
@@ -5942,10 +5939,10 @@
       <c r="M131" s="1"/>
       <c r="N131" s="2"/>
       <c r="O131" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
@@ -5961,13 +5958,13 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L132" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="M132" s="1"/>
       <c r="N132" s="2"/>
@@ -5987,7 +5984,7 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>42</v>
@@ -6013,13 +6010,13 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M134" s="1"/>
       <c r="N134" s="2"/>
@@ -6032,10 +6029,10 @@
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -6043,7 +6040,7 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K135" s="3" t="s">
         <v>186</v>
@@ -6054,10 +6051,10 @@
       <c r="M135" s="1"/>
       <c r="N135" s="2"/>
       <c r="O135" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
@@ -6073,7 +6070,7 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>42</v>
@@ -6099,13 +6096,13 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L137" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="2"/>
@@ -6118,10 +6115,10 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -6129,7 +6126,7 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>186</v>
@@ -6140,10 +6137,10 @@
       <c r="M138" s="1"/>
       <c r="N138" s="2"/>
       <c r="O138" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
@@ -6159,7 +6156,7 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>42</v>
@@ -6185,13 +6182,13 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="2"/>
@@ -6204,10 +6201,10 @@
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -6215,7 +6212,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K141" s="3" t="s">
         <v>186</v>
@@ -6226,10 +6223,10 @@
       <c r="M141" s="1"/>
       <c r="N141" s="2"/>
       <c r="O141" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
@@ -6245,7 +6242,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>42</v>
@@ -6271,13 +6268,13 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M143" s="1"/>
       <c r="N143" s="2"/>
@@ -6290,10 +6287,10 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -6306,7 +6303,7 @@
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
@@ -6330,7 +6327,7 @@
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
@@ -6338,14 +6335,14 @@
     </row>
     <row r="146" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>16</v>
@@ -6362,7 +6359,7 @@
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
@@ -6372,10 +6369,10 @@
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -6385,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>42</v>
@@ -6396,7 +6393,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="2"/>
       <c r="O147" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
@@ -6406,10 +6403,10 @@
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -6424,7 +6421,7 @@
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
@@ -6434,10 +6431,10 @@
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -6452,7 +6449,7 @@
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
@@ -6462,10 +6459,10 @@
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -6480,7 +6477,7 @@
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
@@ -6490,10 +6487,10 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -6508,10 +6505,10 @@
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
@@ -6520,10 +6517,10 @@
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -6538,7 +6535,7 @@
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
@@ -6548,10 +6545,10 @@
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -6561,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>42</v>
@@ -6572,10 +6569,10 @@
       <c r="M153" s="1"/>
       <c r="N153" s="2"/>
       <c r="O153" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
@@ -6598,7 +6595,7 @@
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
@@ -6606,14 +6603,14 @@
     </row>
     <row r="155" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>16</v>
@@ -6630,7 +6627,7 @@
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
@@ -6640,20 +6637,20 @@
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>42</v>
@@ -6664,7 +6661,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="2"/>
       <c r="O156" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
@@ -6674,31 +6671,31 @@
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
@@ -6708,20 +6705,20 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>42</v>
@@ -6732,10 +6729,10 @@
       <c r="M158" s="1"/>
       <c r="N158" s="2"/>
       <c r="O158" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
@@ -6751,10 +6748,10 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>226</v>
@@ -6777,7 +6774,7 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>186</v>
@@ -6796,20 +6793,20 @@
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>42</v>
@@ -6820,10 +6817,10 @@
       <c r="M161" s="1"/>
       <c r="N161" s="2"/>
       <c r="O161" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
@@ -6839,10 +6836,10 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>226</v>
@@ -6865,7 +6862,7 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>186</v>
@@ -6898,7 +6895,7 @@
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
@@ -6906,7 +6903,7 @@
     </row>
     <row r="165" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6915,7 +6912,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -6924,7 +6921,7 @@
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
@@ -6932,16 +6929,16 @@
     </row>
     <row r="166" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>16</v>
@@ -6958,7 +6955,7 @@
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
@@ -6968,25 +6965,25 @@
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L167" s="1" t="s">
         <v>226</v>
@@ -6994,7 +6991,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="2"/>
       <c r="O167" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
@@ -7011,15 +7008,15 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -7030,25 +7027,25 @@
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L169" s="1" t="s">
         <v>226</v>
@@ -7056,7 +7053,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="2"/>
       <c r="O169" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
@@ -7073,15 +7070,15 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -7092,19 +7089,19 @@
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
@@ -7112,7 +7109,7 @@
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
@@ -7122,31 +7119,31 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="2"/>
       <c r="O172" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
@@ -7163,15 +7160,15 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -7182,33 +7179,33 @@
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J174" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="K174" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="M174" s="1"/>
       <c r="N174" s="2"/>
       <c r="O174" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
@@ -7218,22 +7215,22 @@
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>42</v>
@@ -7244,7 +7241,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="2"/>
       <c r="O175" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
@@ -7254,19 +7251,19 @@
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
@@ -7282,25 +7279,25 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>226</v>
@@ -7308,7 +7305,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="2"/>
       <c r="O177" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
@@ -7318,22 +7315,22 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>42</v>
@@ -7344,7 +7341,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="2"/>
       <c r="O178" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
@@ -7361,10 +7358,10 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L179" s="1" t="s">
         <v>226</v>
@@ -7380,22 +7377,22 @@
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>42</v>
@@ -7406,7 +7403,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="2"/>
       <c r="O180" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
@@ -7423,10 +7420,10 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L181" s="1" t="s">
         <v>226</v>
@@ -7442,36 +7439,36 @@
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J182" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="K182" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="L182" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
@@ -7487,15 +7484,15 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
@@ -7513,13 +7510,13 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>

--- a/Schablonen/Radiolearn.xlsx
+++ b/Schablonen/Radiolearn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F17071-4207-4DCC-8372-CB5403E27CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0540958-D735-4899-BFC1-80F4C475BDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1976,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
